--- a/ex3.xlsx
+++ b/ex3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\rarvproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF3518-9F33-43E5-A433-11DE7FB357A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADC6CE-437B-45BE-A9C8-284BD5029887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="6">
   <si>
     <t>影像号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,20 +111,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W189"/>
+  <dimension ref="A1:AR205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:A181"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190:W205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>12467472</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -561,7 +561,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -630,7 +630,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -699,7 +699,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>12466637</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -977,7 +977,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>12467469</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>12467416</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>12453753</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>12447896</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2158,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>12463076</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2229,7 +2229,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>12441459</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2507,7 +2507,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2645,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>12441476</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2785,7 +2785,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +2854,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2992,285 +2992,285 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>12441475</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>29.4</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>32</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>40.200000000000003</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>48.3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>56.4</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>64.3</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>67.5</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>69.099999999999994</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>60.4</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>49.7</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>46.5</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>46.3</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>46.4</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <v>46.4</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="2">
         <v>46.7</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="2">
         <v>47</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="2">
         <v>47.3</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="2">
         <v>47.1</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="2">
         <v>43.6</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38" s="2">
         <v>33.1</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="2">
         <v>29.4</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>152.9</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>144.69999999999999</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>118.4</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>91.3</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>68</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>51.9</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>57</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>63.7</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>85.2</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>108.7</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>119.3</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="2">
         <v>124.8</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="2">
         <v>128.4</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <v>131.30000000000001</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="2">
         <v>132.80000000000001</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="2">
         <v>134.5</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="2">
         <v>135.80000000000001</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="2">
         <v>136.80000000000001</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39" s="2">
         <v>139</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39" s="2">
         <v>149.1</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="2">
         <v>152.9</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>31.7</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>37.4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>48.9</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>57.9</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>68.099999999999994</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>78.2</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>85.8</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>82.3</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>69.400000000000006</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <v>55.9</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>50.8</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="2">
         <v>50.7</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="2">
         <v>50.6</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="2">
         <v>51.1</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="2">
         <v>49.8</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="2">
         <v>49.2</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="2">
         <v>49.4</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40" s="2">
         <v>49.3</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40" s="2">
         <v>46.4</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="2">
         <v>34.9</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="2">
         <v>31.5</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>152.9</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>145.69999999999999</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>129.30000000000001</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>110.4</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>91.7</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>75.8</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>68.3</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>75.900000000000006</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>95.6</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>121.9</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>135.5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="2">
         <v>141.9</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <v>143.5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="2">
         <v>142.4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="2">
         <v>142</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="2">
         <v>140.80000000000001</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="2">
         <v>140.1</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="2">
         <v>140.19999999999999</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="2">
         <v>143.19999999999999</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="2">
         <v>152.4</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="2">
         <v>153.19999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>11102720</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3548,16 +3548,16 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>12436188</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>46.1</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>50.2</v>
       </c>
       <c r="E46" s="1">
@@ -3619,14 +3619,14 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>157.5</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>144</v>
       </c>
       <c r="E47" s="1">
@@ -3688,14 +3688,14 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>48.4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>56</v>
       </c>
       <c r="E48" s="1">
@@ -3756,15 +3756,15 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>180.2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>174.3</v>
       </c>
       <c r="E49" s="1">
@@ -3825,8 +3825,8 @@
         <v>179.1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>12415599</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3896,8 +3896,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
@@ -3965,146 +3965,167 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>215.8</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="D52" s="1">
-        <v>202.8</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="E52" s="1">
-        <v>187.4</v>
+        <v>80</v>
       </c>
       <c r="F52" s="1">
-        <v>156.5</v>
+        <v>91.7</v>
       </c>
       <c r="G52" s="1">
-        <v>131</v>
+        <v>97.1</v>
       </c>
       <c r="H52" s="1">
-        <v>112</v>
+        <v>107.6</v>
       </c>
       <c r="I52" s="1">
-        <v>102.1</v>
+        <v>114</v>
       </c>
       <c r="J52" s="1">
-        <v>100.3</v>
+        <v>123.3</v>
       </c>
       <c r="K52" s="1">
-        <v>105</v>
+        <v>123.5</v>
       </c>
       <c r="L52" s="1">
-        <v>123.2</v>
+        <v>117.7</v>
       </c>
       <c r="M52" s="1">
-        <v>149.80000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="N52" s="1">
-        <v>165.2</v>
+        <v>94</v>
       </c>
       <c r="O52" s="1">
-        <v>168.4</v>
+        <v>92.4</v>
       </c>
       <c r="P52" s="1">
-        <v>169.1</v>
+        <v>96.8</v>
       </c>
       <c r="Q52" s="1">
-        <v>169.8</v>
+        <v>99.8</v>
       </c>
       <c r="R52" s="1">
-        <v>168.9</v>
+        <v>101.6</v>
       </c>
       <c r="S52" s="1">
-        <v>167.7</v>
+        <v>105.5</v>
       </c>
       <c r="T52" s="1">
-        <v>170.1</v>
+        <v>107.4</v>
       </c>
       <c r="U52" s="1">
-        <v>183.1</v>
+        <v>94</v>
       </c>
       <c r="V52" s="1">
-        <v>208.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="W52" s="1">
-        <v>216.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+        <v>64.3</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+    </row>
+    <row r="53" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>64.099999999999994</v>
+        <v>215.8</v>
       </c>
       <c r="D53" s="1">
-        <v>74.900000000000006</v>
+        <v>202.8</v>
       </c>
       <c r="E53" s="1">
-        <v>80</v>
+        <v>187.4</v>
       </c>
       <c r="F53" s="1">
-        <v>91.7</v>
+        <v>156.5</v>
       </c>
       <c r="G53" s="1">
-        <v>97.1</v>
+        <v>131</v>
       </c>
       <c r="H53" s="1">
-        <v>107.6</v>
+        <v>112</v>
       </c>
       <c r="I53" s="1">
-        <v>114</v>
+        <v>102.1</v>
       </c>
       <c r="J53" s="1">
-        <v>123.3</v>
+        <v>100.3</v>
       </c>
       <c r="K53" s="1">
-        <v>123.5</v>
+        <v>105</v>
       </c>
       <c r="L53" s="1">
-        <v>117.7</v>
+        <v>123.2</v>
       </c>
       <c r="M53" s="1">
-        <v>101.9</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="N53" s="1">
-        <v>94</v>
+        <v>165.2</v>
       </c>
       <c r="O53" s="1">
-        <v>92.4</v>
+        <v>168.4</v>
       </c>
       <c r="P53" s="1">
-        <v>96.8</v>
+        <v>169.1</v>
       </c>
       <c r="Q53" s="1">
-        <v>99.8</v>
+        <v>169.8</v>
       </c>
       <c r="R53" s="1">
-        <v>101.6</v>
+        <v>168.9</v>
       </c>
       <c r="S53" s="1">
-        <v>105.5</v>
+        <v>167.7</v>
       </c>
       <c r="T53" s="1">
-        <v>107.4</v>
+        <v>170.1</v>
       </c>
       <c r="U53" s="1">
-        <v>94</v>
+        <v>183.1</v>
       </c>
       <c r="V53" s="1">
-        <v>69.400000000000006</v>
+        <v>208.4</v>
       </c>
       <c r="W53" s="1">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+        <v>216.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>12415608</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4174,8 +4195,8 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
       <c r="B55" s="1" t="s">
         <v>3</v>
       </c>
@@ -4243,8 +4264,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -4312,8 +4333,8 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4381,8 +4402,8 @@
         <v>165.3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>12415614</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4452,8 +4473,8 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
@@ -4521,8 +4542,8 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
@@ -4590,8 +4611,8 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4659,8 +4680,8 @@
         <v>193.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>12415629</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4730,8 +4751,8 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
@@ -4799,8 +4820,8 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:44" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
@@ -4869,7 +4890,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
@@ -4938,7 +4959,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="5">
         <v>12415715</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5009,7 +5030,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
@@ -5078,7 +5099,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
@@ -5147,7 +5168,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +5237,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>12415736</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5287,7 +5308,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
@@ -5356,7 +5377,7 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5446,7 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
@@ -5494,7 +5515,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="5">
         <v>12414937</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5565,7 +5586,7 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
@@ -5634,7 +5655,7 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
         <v>4</v>
       </c>
@@ -5703,7 +5724,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="1" t="s">
         <v>5</v>
       </c>
@@ -5772,7 +5793,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="5">
         <v>12466804</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5843,7 +5864,7 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
@@ -5912,7 +5933,7 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
@@ -5981,7 +6002,7 @@
       </c>
     </row>
     <row r="81" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
@@ -6050,7 +6071,7 @@
       </c>
     </row>
     <row r="82" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="5">
         <v>12476467</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -6121,7 +6142,7 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
@@ -6190,7 +6211,7 @@
       </c>
     </row>
     <row r="84" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="5"/>
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
@@ -6259,7 +6280,7 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="1" t="s">
         <v>5</v>
       </c>
@@ -6328,7 +6349,7 @@
       </c>
     </row>
     <row r="86" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="5">
         <v>12477003</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -6399,7 +6420,7 @@
       </c>
     </row>
     <row r="87" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="1" t="s">
         <v>3</v>
       </c>
@@ -6468,7 +6489,7 @@
       </c>
     </row>
     <row r="88" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
@@ -6537,7 +6558,7 @@
       </c>
     </row>
     <row r="89" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="1" t="s">
         <v>5</v>
       </c>
@@ -6606,7 +6627,7 @@
       </c>
     </row>
     <row r="90" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="5">
         <v>12477005</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -6677,7 +6698,7 @@
       </c>
     </row>
     <row r="91" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="1" t="s">
         <v>3</v>
       </c>
@@ -6746,7 +6767,7 @@
       </c>
     </row>
     <row r="92" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
@@ -6815,7 +6836,7 @@
       </c>
     </row>
     <row r="93" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="1" t="s">
         <v>5</v>
       </c>
@@ -6884,7 +6905,7 @@
       </c>
     </row>
     <row r="94" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="5">
         <v>12481684</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -6955,7 +6976,7 @@
       </c>
     </row>
     <row r="95" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="5"/>
       <c r="B95" s="1" t="s">
         <v>3</v>
       </c>
@@ -7024,7 +7045,7 @@
       </c>
     </row>
     <row r="96" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="5"/>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
@@ -7093,7 +7114,7 @@
       </c>
     </row>
     <row r="97" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="5"/>
       <c r="B97" s="1" t="s">
         <v>5</v>
       </c>
@@ -7162,7 +7183,7 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="5">
         <v>12482517</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -7233,7 +7254,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="5"/>
       <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
@@ -7302,7 +7323,7 @@
       </c>
     </row>
     <row r="100" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="5"/>
       <c r="B100" s="1" t="s">
         <v>4</v>
       </c>
@@ -7371,7 +7392,7 @@
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
@@ -7440,7 +7461,7 @@
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="5">
         <v>12482656</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -7511,7 +7532,7 @@
       </c>
     </row>
     <row r="103" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="1" t="s">
         <v>3</v>
       </c>
@@ -7580,7 +7601,7 @@
       </c>
     </row>
     <row r="104" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="5"/>
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
@@ -7649,7 +7670,7 @@
       </c>
     </row>
     <row r="105" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="5"/>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
@@ -7718,7 +7739,7 @@
       </c>
     </row>
     <row r="106" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="5">
         <v>12482671</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -7789,7 +7810,7 @@
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="1" t="s">
         <v>3</v>
       </c>
@@ -7858,7 +7879,7 @@
       </c>
     </row>
     <row r="108" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
@@ -7927,7 +7948,7 @@
       </c>
     </row>
     <row r="109" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="5"/>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
@@ -7996,7 +8017,7 @@
       </c>
     </row>
     <row r="110" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="5">
         <v>12485820</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -8067,7 +8088,7 @@
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="1" t="s">
         <v>3</v>
       </c>
@@ -8136,7 +8157,7 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="5"/>
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
@@ -8205,7 +8226,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="5"/>
       <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
@@ -8274,10 +8295,10 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="6">
         <v>12487177</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="1">
@@ -8345,8 +8366,8 @@
       </c>
     </row>
     <row r="115" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="6"/>
+      <c r="B115" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="1">
@@ -8414,8 +8435,8 @@
       </c>
     </row>
     <row r="116" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="6"/>
+      <c r="B116" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="1">
@@ -8483,8 +8504,8 @@
       </c>
     </row>
     <row r="117" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="6"/>
+      <c r="B117" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="1">
@@ -8552,7 +8573,7 @@
       </c>
     </row>
     <row r="118" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="5">
         <v>12487212</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -8623,7 +8644,7 @@
       </c>
     </row>
     <row r="119" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="5"/>
       <c r="B119" s="1" t="s">
         <v>3</v>
       </c>
@@ -8692,7 +8713,7 @@
       </c>
     </row>
     <row r="120" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
+      <c r="A120" s="5"/>
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
@@ -8761,7 +8782,7 @@
       </c>
     </row>
     <row r="121" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="1" t="s">
         <v>5</v>
       </c>
@@ -8830,7 +8851,7 @@
       </c>
     </row>
     <row r="122" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="5">
         <v>12487255</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -8901,7 +8922,7 @@
       </c>
     </row>
     <row r="123" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="5"/>
       <c r="B123" s="1" t="s">
         <v>3</v>
       </c>
@@ -8970,7 +8991,7 @@
       </c>
     </row>
     <row r="124" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
+      <c r="A124" s="5"/>
       <c r="B124" s="1" t="s">
         <v>4</v>
       </c>
@@ -9039,7 +9060,7 @@
       </c>
     </row>
     <row r="125" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="5"/>
       <c r="B125" s="1" t="s">
         <v>5</v>
       </c>
@@ -9108,7 +9129,7 @@
       </c>
     </row>
     <row r="126" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="5">
         <v>12488380</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -9179,7 +9200,7 @@
       </c>
     </row>
     <row r="127" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="1" t="s">
         <v>3</v>
       </c>
@@ -9248,7 +9269,7 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="5"/>
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
@@ -9317,7 +9338,7 @@
       </c>
     </row>
     <row r="129" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="1" t="s">
         <v>5</v>
       </c>
@@ -9386,7 +9407,7 @@
       </c>
     </row>
     <row r="130" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="5">
         <v>12488397</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -9457,7 +9478,7 @@
       </c>
     </row>
     <row r="131" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="5"/>
       <c r="B131" s="1" t="s">
         <v>3</v>
       </c>
@@ -9526,7 +9547,7 @@
       </c>
     </row>
     <row r="132" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="5"/>
       <c r="B132" s="1" t="s">
         <v>4</v>
       </c>
@@ -9595,7 +9616,7 @@
       </c>
     </row>
     <row r="133" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="5"/>
       <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
@@ -9664,10 +9685,10 @@
       </c>
     </row>
     <row r="134" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="6">
         <v>12488742</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="1">
@@ -9735,8 +9756,8 @@
       </c>
     </row>
     <row r="135" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5" t="s">
+      <c r="A135" s="6"/>
+      <c r="B135" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C135" s="1">
@@ -9804,8 +9825,8 @@
       </c>
     </row>
     <row r="136" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5" t="s">
+      <c r="A136" s="6"/>
+      <c r="B136" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="1">
@@ -9873,8 +9894,8 @@
       </c>
     </row>
     <row r="137" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5" t="s">
+      <c r="A137" s="6"/>
+      <c r="B137" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C137" s="1">
@@ -9942,7 +9963,7 @@
       </c>
     </row>
     <row r="138" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="5">
         <v>12419738</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -10013,7 +10034,7 @@
       </c>
     </row>
     <row r="139" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
+      <c r="A139" s="5"/>
       <c r="B139" s="1" t="s">
         <v>3</v>
       </c>
@@ -10082,7 +10103,7 @@
       </c>
     </row>
     <row r="140" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="5"/>
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
@@ -10151,7 +10172,7 @@
       </c>
     </row>
     <row r="141" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="5"/>
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
@@ -10220,7 +10241,7 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="5">
         <v>12434438</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -10291,7 +10312,7 @@
       </c>
     </row>
     <row r="143" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="5"/>
       <c r="B143" s="1" t="s">
         <v>3</v>
       </c>
@@ -10360,7 +10381,7 @@
       </c>
     </row>
     <row r="144" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
+      <c r="A144" s="5"/>
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
@@ -10429,7 +10450,7 @@
       </c>
     </row>
     <row r="145" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="5"/>
       <c r="B145" s="1" t="s">
         <v>5</v>
       </c>
@@ -10498,7 +10519,7 @@
       </c>
     </row>
     <row r="146" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="5">
         <v>12406492</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -10569,7 +10590,7 @@
       </c>
     </row>
     <row r="147" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="5"/>
       <c r="B147" s="1" t="s">
         <v>3</v>
       </c>
@@ -10638,7 +10659,7 @@
       </c>
     </row>
     <row r="148" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="5"/>
       <c r="B148" s="1" t="s">
         <v>4</v>
       </c>
@@ -10707,7 +10728,7 @@
       </c>
     </row>
     <row r="149" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="5"/>
       <c r="B149" s="1" t="s">
         <v>5</v>
       </c>
@@ -10776,7 +10797,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="5">
         <v>11797757</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -10847,7 +10868,7 @@
       </c>
     </row>
     <row r="151" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="5"/>
       <c r="B151" s="1" t="s">
         <v>3</v>
       </c>
@@ -10916,7 +10937,7 @@
       </c>
     </row>
     <row r="152" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="5"/>
       <c r="B152" s="1" t="s">
         <v>4</v>
       </c>
@@ -10985,7 +11006,7 @@
       </c>
     </row>
     <row r="153" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="5"/>
       <c r="B153" s="1" t="s">
         <v>5</v>
       </c>
@@ -11054,1397 +11075,1397 @@
       </c>
     </row>
     <row r="154" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="5">
         <v>12487938</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="4">
         <v>88.1</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="4">
         <v>83.4</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="4">
         <v>86.6</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="4">
         <v>97.6</v>
       </c>
-      <c r="G154" s="6">
+      <c r="G154" s="4">
         <v>110.1</v>
       </c>
-      <c r="H154" s="6">
+      <c r="H154" s="4">
         <v>121.1</v>
       </c>
-      <c r="I154" s="6">
+      <c r="I154" s="4">
         <v>128.6</v>
       </c>
-      <c r="J154" s="6">
+      <c r="J154" s="4">
         <v>132.30000000000001</v>
       </c>
-      <c r="K154" s="6">
+      <c r="K154" s="4">
         <v>134.5</v>
       </c>
-      <c r="L154" s="6">
+      <c r="L154" s="4">
         <v>127.7</v>
       </c>
-      <c r="M154" s="6">
+      <c r="M154" s="4">
         <v>112.8</v>
       </c>
-      <c r="N154" s="6">
+      <c r="N154" s="4">
         <v>110.8</v>
       </c>
-      <c r="O154" s="6">
+      <c r="O154" s="4">
         <v>115.4</v>
       </c>
-      <c r="P154" s="6">
+      <c r="P154" s="4">
         <v>117.5</v>
       </c>
-      <c r="Q154" s="6">
+      <c r="Q154" s="4">
         <v>117.6</v>
       </c>
-      <c r="R154" s="6">
+      <c r="R154" s="4">
         <v>118.3</v>
       </c>
-      <c r="S154" s="6">
+      <c r="S154" s="4">
         <v>118.4</v>
       </c>
-      <c r="T154" s="6">
+      <c r="T154" s="4">
         <v>118.8</v>
       </c>
-      <c r="U154" s="6">
+      <c r="U154" s="4">
         <v>111.8</v>
       </c>
-      <c r="V154" s="6">
+      <c r="V154" s="4">
         <v>94.8</v>
       </c>
-      <c r="W154" s="6">
+      <c r="W154" s="4">
         <v>88.1</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
+      <c r="A155" s="5"/>
       <c r="B155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="4">
         <v>118.2</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="4">
         <v>113.6</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="4">
         <v>92</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="4">
         <v>72.900000000000006</v>
       </c>
-      <c r="G155" s="6">
+      <c r="G155" s="4">
         <v>56.7</v>
       </c>
-      <c r="H155" s="6">
+      <c r="H155" s="4">
         <v>45.8</v>
       </c>
-      <c r="I155" s="6">
+      <c r="I155" s="4">
         <v>41</v>
       </c>
-      <c r="J155" s="6">
+      <c r="J155" s="4">
         <v>42</v>
       </c>
-      <c r="K155" s="6">
+      <c r="K155" s="4">
         <v>41.5</v>
       </c>
-      <c r="L155" s="6">
+      <c r="L155" s="4">
         <v>51</v>
       </c>
-      <c r="M155" s="6">
+      <c r="M155" s="4">
         <v>78.8</v>
       </c>
-      <c r="N155" s="6">
+      <c r="N155" s="4">
         <v>94.7</v>
       </c>
-      <c r="O155" s="6">
+      <c r="O155" s="4">
         <v>95.4</v>
       </c>
-      <c r="P155" s="6">
+      <c r="P155" s="4">
         <v>94.3</v>
       </c>
-      <c r="Q155" s="6">
+      <c r="Q155" s="4">
         <v>96.3</v>
       </c>
-      <c r="R155" s="6">
+      <c r="R155" s="4">
         <v>98</v>
       </c>
-      <c r="S155" s="6">
+      <c r="S155" s="4">
         <v>99.7</v>
       </c>
-      <c r="T155" s="6">
+      <c r="T155" s="4">
         <v>100.1</v>
       </c>
-      <c r="U155" s="6">
+      <c r="U155" s="4">
         <v>102.9</v>
       </c>
-      <c r="V155" s="6">
+      <c r="V155" s="4">
         <v>115.7</v>
       </c>
-      <c r="W155" s="6">
+      <c r="W155" s="4">
         <v>118.2</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="4">
         <v>60.7</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="4">
         <v>68.099999999999994</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="4">
         <v>79.8</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="4">
         <v>92.8</v>
       </c>
-      <c r="G156" s="6">
+      <c r="G156" s="4">
         <v>105.5</v>
       </c>
-      <c r="H156" s="6">
+      <c r="H156" s="4">
         <v>118.7</v>
       </c>
-      <c r="I156" s="6">
+      <c r="I156" s="4">
         <v>129.80000000000001</v>
       </c>
-      <c r="J156" s="6">
+      <c r="J156" s="4">
         <v>134.80000000000001</v>
       </c>
-      <c r="K156" s="6">
+      <c r="K156" s="4">
         <v>131.80000000000001</v>
       </c>
-      <c r="L156" s="6">
+      <c r="L156" s="4">
         <v>116.9</v>
       </c>
-      <c r="M156" s="6">
+      <c r="M156" s="4">
         <v>105.1</v>
       </c>
-      <c r="N156" s="6">
+      <c r="N156" s="4">
         <v>98</v>
       </c>
-      <c r="O156" s="6">
+      <c r="O156" s="4">
         <v>95.6</v>
       </c>
-      <c r="P156" s="6">
+      <c r="P156" s="4">
         <v>96.8</v>
       </c>
-      <c r="Q156" s="6">
+      <c r="Q156" s="4">
         <v>97.4</v>
       </c>
-      <c r="R156" s="6">
+      <c r="R156" s="4">
         <v>95.6</v>
       </c>
-      <c r="S156" s="6">
+      <c r="S156" s="4">
         <v>94.7</v>
       </c>
-      <c r="T156" s="6">
+      <c r="T156" s="4">
         <v>93.8</v>
       </c>
-      <c r="U156" s="6">
+      <c r="U156" s="4">
         <v>86.8</v>
       </c>
-      <c r="V156" s="6">
+      <c r="V156" s="4">
         <v>66.900000000000006</v>
       </c>
-      <c r="W156" s="6">
+      <c r="W156" s="4">
         <v>60.9</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="5"/>
       <c r="B157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="4">
         <v>164.8</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="4">
         <v>158.19999999999999</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="4">
         <v>147.9</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="4">
         <v>130.19999999999999</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G157" s="4">
         <v>111.2</v>
       </c>
-      <c r="H157" s="6">
+      <c r="H157" s="4">
         <v>98</v>
       </c>
-      <c r="I157" s="6">
+      <c r="I157" s="4">
         <v>89</v>
       </c>
-      <c r="J157" s="6">
+      <c r="J157" s="4">
         <v>88.2</v>
       </c>
-      <c r="K157" s="6">
+      <c r="K157" s="4">
         <v>95.8</v>
       </c>
-      <c r="L157" s="6">
+      <c r="L157" s="4">
         <v>116.2</v>
       </c>
-      <c r="M157" s="6">
+      <c r="M157" s="4">
         <v>136.1</v>
       </c>
-      <c r="N157" s="6">
+      <c r="N157" s="4">
         <v>145.69999999999999</v>
       </c>
-      <c r="O157" s="6">
+      <c r="O157" s="4">
         <v>143.19999999999999</v>
       </c>
-      <c r="P157" s="6">
+      <c r="P157" s="4">
         <v>141.69999999999999</v>
       </c>
-      <c r="Q157" s="6">
+      <c r="Q157" s="4">
         <v>138.5</v>
       </c>
-      <c r="R157" s="6">
+      <c r="R157" s="4">
         <v>138.30000000000001</v>
       </c>
-      <c r="S157" s="6">
+      <c r="S157" s="4">
         <v>138.30000000000001</v>
       </c>
-      <c r="T157" s="6">
+      <c r="T157" s="4">
         <v>137.6</v>
       </c>
-      <c r="U157" s="6">
+      <c r="U157" s="4">
         <v>143.5</v>
       </c>
-      <c r="V157" s="6">
+      <c r="V157" s="4">
         <v>158.30000000000001</v>
       </c>
-      <c r="W157" s="6">
+      <c r="W157" s="4">
         <v>164.7</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="5">
         <v>12487848</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="4">
         <v>48.6</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="4">
         <v>51.4</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="4">
         <v>60.5</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="4">
         <v>70.400000000000006</v>
       </c>
-      <c r="G158" s="6">
+      <c r="G158" s="4">
         <v>77.5</v>
       </c>
-      <c r="H158" s="6">
+      <c r="H158" s="4">
         <v>83</v>
       </c>
-      <c r="I158" s="6">
+      <c r="I158" s="4">
         <v>88.5</v>
       </c>
-      <c r="J158" s="6">
+      <c r="J158" s="4">
         <v>93.7</v>
       </c>
-      <c r="K158" s="6">
+      <c r="K158" s="4">
         <v>95.6</v>
       </c>
-      <c r="L158" s="6">
+      <c r="L158" s="4">
         <v>85</v>
       </c>
-      <c r="M158" s="6">
+      <c r="M158" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="N158" s="6">
+      <c r="N158" s="4">
         <v>69</v>
       </c>
-      <c r="O158" s="6">
+      <c r="O158" s="4">
         <v>72.8</v>
       </c>
-      <c r="P158" s="6">
+      <c r="P158" s="4">
         <v>77.2</v>
       </c>
-      <c r="Q158" s="6">
+      <c r="Q158" s="4">
         <v>79.3</v>
       </c>
-      <c r="R158" s="6">
+      <c r="R158" s="4">
         <v>79.900000000000006</v>
       </c>
-      <c r="S158" s="6">
+      <c r="S158" s="4">
         <v>80.2</v>
       </c>
-      <c r="T158" s="6">
+      <c r="T158" s="4">
         <v>79.2</v>
       </c>
-      <c r="U158" s="6">
+      <c r="U158" s="4">
         <v>67.2</v>
       </c>
-      <c r="V158" s="6">
+      <c r="V158" s="4">
         <v>52.2</v>
       </c>
-      <c r="W158" s="6">
+      <c r="W158" s="4">
         <v>48.4</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="5"/>
       <c r="B159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="4">
         <v>126.7</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="4">
         <v>116</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="4">
         <v>92.2</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="4">
         <v>71.2</v>
       </c>
-      <c r="G159" s="6">
+      <c r="G159" s="4">
         <v>55.4</v>
       </c>
-      <c r="H159" s="6">
+      <c r="H159" s="4">
         <v>45.4</v>
       </c>
-      <c r="I159" s="6">
+      <c r="I159" s="4">
         <v>40.799999999999997</v>
       </c>
-      <c r="J159" s="6">
+      <c r="J159" s="4">
         <v>41.5</v>
       </c>
-      <c r="K159" s="6">
+      <c r="K159" s="4">
         <v>42.7</v>
       </c>
-      <c r="L159" s="6">
+      <c r="L159" s="4">
         <v>54.1</v>
       </c>
-      <c r="M159" s="6">
+      <c r="M159" s="4">
         <v>80.400000000000006</v>
       </c>
-      <c r="N159" s="6">
+      <c r="N159" s="4">
         <v>94.9</v>
       </c>
-      <c r="O159" s="6">
+      <c r="O159" s="4">
         <v>100.7</v>
       </c>
-      <c r="P159" s="6">
+      <c r="P159" s="4">
         <v>100.5</v>
       </c>
-      <c r="Q159" s="6">
+      <c r="Q159" s="4">
         <v>100.8</v>
       </c>
-      <c r="R159" s="6">
+      <c r="R159" s="4">
         <v>101</v>
       </c>
-      <c r="S159" s="6">
+      <c r="S159" s="4">
         <v>102.9</v>
       </c>
-      <c r="T159" s="6">
+      <c r="T159" s="4">
         <v>105.2</v>
       </c>
-      <c r="U159" s="6">
+      <c r="U159" s="4">
         <v>111.3</v>
       </c>
-      <c r="V159" s="6">
+      <c r="V159" s="4">
         <v>126.5</v>
       </c>
-      <c r="W159" s="6">
+      <c r="W159" s="4">
         <v>126.6</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="5"/>
       <c r="B160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="4">
         <v>77.400000000000006</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="4">
         <v>80.7</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="4">
         <v>94.1</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160" s="4">
         <v>107</v>
       </c>
-      <c r="G160" s="6">
+      <c r="G160" s="4">
         <v>121.9</v>
       </c>
-      <c r="H160" s="6">
+      <c r="H160" s="4">
         <v>133.6</v>
       </c>
-      <c r="I160" s="6">
+      <c r="I160" s="4">
         <v>138.6</v>
       </c>
-      <c r="J160" s="6">
+      <c r="J160" s="4">
         <v>142.1</v>
       </c>
-      <c r="K160" s="6">
+      <c r="K160" s="4">
         <v>139.80000000000001</v>
       </c>
-      <c r="L160" s="6">
+      <c r="L160" s="4">
         <v>127</v>
       </c>
-      <c r="M160" s="6">
+      <c r="M160" s="4">
         <v>112.9</v>
       </c>
-      <c r="N160" s="6">
+      <c r="N160" s="4">
         <v>108.7</v>
       </c>
-      <c r="O160" s="6">
+      <c r="O160" s="4">
         <v>108.3</v>
       </c>
-      <c r="P160" s="6">
+      <c r="P160" s="4">
         <v>110.3</v>
       </c>
-      <c r="Q160" s="6">
+      <c r="Q160" s="4">
         <v>112.4</v>
       </c>
-      <c r="R160" s="6">
+      <c r="R160" s="4">
         <v>113.8</v>
       </c>
-      <c r="S160" s="6">
+      <c r="S160" s="4">
         <v>112.5</v>
       </c>
-      <c r="T160" s="6">
+      <c r="T160" s="4">
         <v>111.6</v>
       </c>
-      <c r="U160" s="6">
+      <c r="U160" s="4">
         <v>94.6</v>
       </c>
-      <c r="V160" s="6">
+      <c r="V160" s="4">
         <v>79.2</v>
       </c>
-      <c r="W160" s="6">
+      <c r="W160" s="4">
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="5"/>
       <c r="B161" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="4">
         <v>180.5</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="4">
         <v>167.2</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="4">
         <v>151.69999999999999</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F161" s="4">
         <v>127.8</v>
       </c>
-      <c r="G161" s="6">
+      <c r="G161" s="4">
         <v>105.4</v>
       </c>
-      <c r="H161" s="6">
+      <c r="H161" s="4">
         <v>94</v>
       </c>
-      <c r="I161" s="6">
+      <c r="I161" s="4">
         <v>86.3</v>
       </c>
-      <c r="J161" s="6">
+      <c r="J161" s="4">
         <v>89.6</v>
       </c>
-      <c r="K161" s="6">
+      <c r="K161" s="4">
         <v>97</v>
       </c>
-      <c r="L161" s="6">
+      <c r="L161" s="4">
         <v>124.9</v>
       </c>
-      <c r="M161" s="6">
+      <c r="M161" s="4">
         <v>149.19999999999999</v>
       </c>
-      <c r="N161" s="6">
+      <c r="N161" s="4">
         <v>161.6</v>
       </c>
-      <c r="O161" s="6">
+      <c r="O161" s="4">
         <v>163.9</v>
       </c>
-      <c r="P161" s="6">
+      <c r="P161" s="4">
         <v>160.19999999999999</v>
       </c>
-      <c r="Q161" s="6">
+      <c r="Q161" s="4">
         <v>157.30000000000001</v>
       </c>
-      <c r="R161" s="6">
+      <c r="R161" s="4">
         <v>157</v>
       </c>
-      <c r="S161" s="6">
+      <c r="S161" s="4">
         <v>157.69999999999999</v>
       </c>
-      <c r="T161" s="6">
+      <c r="T161" s="4">
         <v>159.1</v>
       </c>
-      <c r="U161" s="6">
+      <c r="U161" s="4">
         <v>168</v>
       </c>
-      <c r="V161" s="6">
+      <c r="V161" s="4">
         <v>181.7</v>
       </c>
-      <c r="W161" s="6">
+      <c r="W161" s="4">
         <v>181.4</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="5">
         <v>12488101</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="4">
         <v>37.1</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="4">
         <v>45</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F162" s="4">
         <v>50.8</v>
       </c>
-      <c r="G162" s="6">
+      <c r="G162" s="4">
         <v>58.1</v>
       </c>
-      <c r="H162" s="6">
+      <c r="H162" s="4">
         <v>63.9</v>
       </c>
-      <c r="I162" s="6">
+      <c r="I162" s="4">
         <v>67.8</v>
       </c>
-      <c r="J162" s="6">
+      <c r="J162" s="4">
         <v>73.5</v>
       </c>
-      <c r="K162" s="6">
+      <c r="K162" s="4">
         <v>77.599999999999994</v>
       </c>
-      <c r="L162" s="6">
+      <c r="L162" s="4">
         <v>80.900000000000006</v>
       </c>
-      <c r="M162" s="6">
+      <c r="M162" s="4">
         <v>83.6</v>
       </c>
-      <c r="N162" s="6">
+      <c r="N162" s="4">
         <v>83.1</v>
       </c>
-      <c r="O162" s="6">
+      <c r="O162" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="P162" s="6">
+      <c r="P162" s="4">
         <v>67.400000000000006</v>
       </c>
-      <c r="Q162" s="6">
+      <c r="Q162" s="4">
         <v>62.6</v>
       </c>
-      <c r="R162" s="6">
+      <c r="R162" s="4">
         <v>62.2</v>
       </c>
-      <c r="S162" s="6">
+      <c r="S162" s="4">
         <v>62.1</v>
       </c>
-      <c r="T162" s="6">
+      <c r="T162" s="4">
         <v>57.5</v>
       </c>
-      <c r="U162" s="6">
+      <c r="U162" s="4">
         <v>47.6</v>
       </c>
-      <c r="V162" s="6">
+      <c r="V162" s="4">
         <v>38.4</v>
       </c>
-      <c r="W162" s="6">
+      <c r="W162" s="4">
         <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+      <c r="A163" s="5"/>
       <c r="B163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="4">
         <v>115.1</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="4">
         <v>111.3</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="4">
         <v>98.3</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F163" s="4">
         <v>84.6</v>
       </c>
-      <c r="G163" s="6">
+      <c r="G163" s="4">
         <v>71.5</v>
       </c>
-      <c r="H163" s="6">
+      <c r="H163" s="4">
         <v>62</v>
       </c>
-      <c r="I163" s="6">
+      <c r="I163" s="4">
         <v>53.9</v>
       </c>
-      <c r="J163" s="6">
+      <c r="J163" s="4">
         <v>47.6</v>
       </c>
-      <c r="K163" s="6">
+      <c r="K163" s="4">
         <v>44.7</v>
       </c>
-      <c r="L163" s="6">
+      <c r="L163" s="4">
         <v>45.4</v>
       </c>
-      <c r="M163" s="6">
+      <c r="M163" s="4">
         <v>46</v>
       </c>
-      <c r="N163" s="6">
+      <c r="N163" s="4">
         <v>49.2</v>
       </c>
-      <c r="O163" s="6">
+      <c r="O163" s="4">
         <v>59.6</v>
       </c>
-      <c r="P163" s="6">
+      <c r="P163" s="4">
         <v>73.2</v>
       </c>
-      <c r="Q163" s="6">
+      <c r="Q163" s="4">
         <v>87.8</v>
       </c>
-      <c r="R163" s="6">
+      <c r="R163" s="4">
         <v>93.6</v>
       </c>
-      <c r="S163" s="6">
+      <c r="S163" s="4">
         <v>95.3</v>
       </c>
-      <c r="T163" s="6">
+      <c r="T163" s="4">
         <v>96.3</v>
       </c>
-      <c r="U163" s="6">
+      <c r="U163" s="4">
         <v>106.1</v>
       </c>
-      <c r="V163" s="6">
+      <c r="V163" s="4">
         <v>116.8</v>
       </c>
-      <c r="W163" s="6">
+      <c r="W163" s="4">
         <v>115.1</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="5"/>
       <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="4">
         <v>62.1</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="4">
         <v>66.7</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164" s="4">
         <v>77.8</v>
       </c>
-      <c r="G164" s="6">
+      <c r="G164" s="4">
         <v>84.8</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H164" s="4">
         <v>94.6</v>
       </c>
-      <c r="I164" s="6">
+      <c r="I164" s="4">
         <v>103.9</v>
       </c>
-      <c r="J164" s="6">
+      <c r="J164" s="4">
         <v>113.1</v>
       </c>
-      <c r="K164" s="6">
+      <c r="K164" s="4">
         <v>121.3</v>
       </c>
-      <c r="L164" s="6">
+      <c r="L164" s="4">
         <v>125.4</v>
       </c>
-      <c r="M164" s="6">
+      <c r="M164" s="4">
         <v>126.3</v>
       </c>
-      <c r="N164" s="6">
+      <c r="N164" s="4">
         <v>121.2</v>
       </c>
-      <c r="O164" s="6">
+      <c r="O164" s="4">
         <v>107.2</v>
       </c>
-      <c r="P164" s="6">
+      <c r="P164" s="4">
         <v>100.3</v>
       </c>
-      <c r="Q164" s="6">
+      <c r="Q164" s="4">
         <v>96</v>
       </c>
-      <c r="R164" s="6">
+      <c r="R164" s="4">
         <v>92.5</v>
       </c>
-      <c r="S164" s="6">
+      <c r="S164" s="4">
         <v>88.9</v>
       </c>
-      <c r="T164" s="6">
+      <c r="T164" s="4">
         <v>78.5</v>
       </c>
-      <c r="U164" s="6">
+      <c r="U164" s="4">
         <v>69.900000000000006</v>
       </c>
-      <c r="V164" s="6">
+      <c r="V164" s="4">
         <v>59.8</v>
       </c>
-      <c r="W164" s="6">
+      <c r="W164" s="4">
         <v>62.2</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="5"/>
       <c r="B165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="4">
         <v>165.9</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="4">
         <v>158.9</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="4">
         <v>148.6</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F165" s="4">
         <v>137.69999999999999</v>
       </c>
-      <c r="G165" s="6">
+      <c r="G165" s="4">
         <v>122.5</v>
       </c>
-      <c r="H165" s="6">
+      <c r="H165" s="4">
         <v>109.7</v>
       </c>
-      <c r="I165" s="6">
+      <c r="I165" s="4">
         <v>99.3</v>
       </c>
-      <c r="J165" s="6">
+      <c r="J165" s="4">
         <v>89.5</v>
       </c>
-      <c r="K165" s="6">
+      <c r="K165" s="4">
         <v>84.9</v>
       </c>
-      <c r="L165" s="6">
+      <c r="L165" s="4">
         <v>84.8</v>
       </c>
-      <c r="M165" s="6">
+      <c r="M165" s="4">
         <v>89.1</v>
       </c>
-      <c r="N165" s="6">
+      <c r="N165" s="4">
         <v>96.6</v>
       </c>
-      <c r="O165" s="6">
+      <c r="O165" s="4">
         <v>114.6</v>
       </c>
-      <c r="P165" s="6">
+      <c r="P165" s="4">
         <v>128.30000000000001</v>
       </c>
-      <c r="Q165" s="6">
+      <c r="Q165" s="4">
         <v>134.6</v>
       </c>
-      <c r="R165" s="6">
+      <c r="R165" s="4">
         <v>141.6</v>
       </c>
-      <c r="S165" s="6">
+      <c r="S165" s="4">
         <v>146.69999999999999</v>
       </c>
-      <c r="T165" s="6">
+      <c r="T165" s="4">
         <v>153.4</v>
       </c>
-      <c r="U165" s="6">
+      <c r="U165" s="4">
         <v>162.5</v>
       </c>
-      <c r="V165" s="6">
+      <c r="V165" s="4">
         <v>169.7</v>
       </c>
-      <c r="W165" s="6">
+      <c r="W165" s="4">
         <v>165.7</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="5">
         <v>12487861</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="4">
         <v>43.3</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="4">
         <v>45.3</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="4">
         <v>50.6</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F166" s="4">
         <v>60</v>
       </c>
-      <c r="G166" s="6">
+      <c r="G166" s="4">
         <v>70.099999999999994</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H166" s="4">
         <v>77</v>
       </c>
-      <c r="I166" s="6">
+      <c r="I166" s="4">
         <v>83.1</v>
       </c>
-      <c r="J166" s="6">
+      <c r="J166" s="4">
         <v>86.2</v>
       </c>
-      <c r="K166" s="6">
+      <c r="K166" s="4">
         <v>87.3</v>
       </c>
-      <c r="L166" s="6">
+      <c r="L166" s="4">
         <v>87.1</v>
       </c>
-      <c r="M166" s="6">
+      <c r="M166" s="4">
         <v>80.3</v>
       </c>
-      <c r="N166" s="6">
+      <c r="N166" s="4">
         <v>70.3</v>
       </c>
-      <c r="O166" s="6">
+      <c r="O166" s="4">
         <v>68.900000000000006</v>
       </c>
-      <c r="P166" s="6">
+      <c r="P166" s="4">
         <v>69.099999999999994</v>
       </c>
-      <c r="Q166" s="6">
+      <c r="Q166" s="4">
         <v>69.400000000000006</v>
       </c>
-      <c r="R166" s="6">
+      <c r="R166" s="4">
         <v>69.099999999999994</v>
       </c>
-      <c r="S166" s="6">
+      <c r="S166" s="4">
         <v>68.8</v>
       </c>
-      <c r="T166" s="6">
+      <c r="T166" s="4">
         <v>65.2</v>
       </c>
-      <c r="U166" s="6">
+      <c r="U166" s="4">
         <v>54.5</v>
       </c>
-      <c r="V166" s="6">
+      <c r="V166" s="4">
         <v>45.9</v>
       </c>
-      <c r="W166" s="6">
+      <c r="W166" s="4">
         <v>43.3</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="5"/>
       <c r="B167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="4">
         <v>89.7</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="4">
         <v>78.2</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="4">
         <v>62.3</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F167" s="4">
         <v>48.2</v>
       </c>
-      <c r="G167" s="6">
+      <c r="G167" s="4">
         <v>37.200000000000003</v>
       </c>
-      <c r="H167" s="6">
+      <c r="H167" s="4">
         <v>30.1</v>
       </c>
-      <c r="I167" s="6">
+      <c r="I167" s="4">
         <v>22.8</v>
       </c>
-      <c r="J167" s="6">
+      <c r="J167" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="K167" s="6">
+      <c r="K167" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="L167" s="6">
+      <c r="L167" s="4">
         <v>22.1</v>
       </c>
-      <c r="M167" s="6">
+      <c r="M167" s="4">
         <v>32.6</v>
       </c>
-      <c r="N167" s="6">
+      <c r="N167" s="4">
         <v>47.8</v>
       </c>
-      <c r="O167" s="6">
+      <c r="O167" s="4">
         <v>62.2</v>
       </c>
-      <c r="P167" s="6">
+      <c r="P167" s="4">
         <v>68.5</v>
       </c>
-      <c r="Q167" s="6">
+      <c r="Q167" s="4">
         <v>70.7</v>
       </c>
-      <c r="R167" s="6">
+      <c r="R167" s="4">
         <v>72.7</v>
       </c>
-      <c r="S167" s="6">
+      <c r="S167" s="4">
         <v>74.5</v>
       </c>
-      <c r="T167" s="6">
+      <c r="T167" s="4">
         <v>76.7</v>
       </c>
-      <c r="U167" s="6">
+      <c r="U167" s="4">
         <v>84.6</v>
       </c>
-      <c r="V167" s="6">
+      <c r="V167" s="4">
         <v>91.7</v>
       </c>
-      <c r="W167" s="6">
+      <c r="W167" s="4">
         <v>89.8</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="5"/>
       <c r="B168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="4">
         <v>37.5</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="4">
         <v>39.6</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="4">
         <v>49.1</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168" s="4">
         <v>57.9</v>
       </c>
-      <c r="G168" s="6">
+      <c r="G168" s="4">
         <v>66.2</v>
       </c>
-      <c r="H168" s="6">
+      <c r="H168" s="4">
         <v>75.7</v>
       </c>
-      <c r="I168" s="6">
+      <c r="I168" s="4">
         <v>83.7</v>
       </c>
-      <c r="J168" s="6">
+      <c r="J168" s="4">
         <v>89</v>
       </c>
-      <c r="K168" s="6">
+      <c r="K168" s="4">
         <v>90.1</v>
       </c>
-      <c r="L168" s="6">
+      <c r="L168" s="4">
         <v>88.2</v>
       </c>
-      <c r="M168" s="6">
+      <c r="M168" s="4">
         <v>74.3</v>
       </c>
-      <c r="N168" s="6">
+      <c r="N168" s="4">
         <v>65.8</v>
       </c>
-      <c r="O168" s="6">
+      <c r="O168" s="4">
         <v>63</v>
       </c>
-      <c r="P168" s="6">
+      <c r="P168" s="4">
         <v>60.9</v>
       </c>
-      <c r="Q168" s="6">
+      <c r="Q168" s="4">
         <v>60.1</v>
       </c>
-      <c r="R168" s="6">
+      <c r="R168" s="4">
         <v>60</v>
       </c>
-      <c r="S168" s="6">
+      <c r="S168" s="4">
         <v>60.1</v>
       </c>
-      <c r="T168" s="6">
+      <c r="T168" s="4">
         <v>53.9</v>
       </c>
-      <c r="U168" s="6">
+      <c r="U168" s="4">
         <v>45.1</v>
       </c>
-      <c r="V168" s="6">
+      <c r="V168" s="4">
         <v>36.1</v>
       </c>
-      <c r="W168" s="6">
+      <c r="W168" s="4">
         <v>37.5</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="5"/>
       <c r="B169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="4">
         <v>110.4</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="4">
         <v>103</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="4">
         <v>90.7</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F169" s="4">
         <v>75.3</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G169" s="4">
         <v>60.8</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H169" s="4">
         <v>49.5</v>
       </c>
-      <c r="I169" s="6">
+      <c r="I169" s="4">
         <v>40.299999999999997</v>
       </c>
-      <c r="J169" s="6">
+      <c r="J169" s="4">
         <v>35.4</v>
       </c>
-      <c r="K169" s="6">
+      <c r="K169" s="4">
         <v>36.9</v>
       </c>
-      <c r="L169" s="6">
+      <c r="L169" s="4">
         <v>42</v>
       </c>
-      <c r="M169" s="6">
+      <c r="M169" s="4">
         <v>60.1</v>
       </c>
-      <c r="N169" s="6">
+      <c r="N169" s="4">
         <v>77.599999999999994</v>
       </c>
-      <c r="O169" s="6">
+      <c r="O169" s="4">
         <v>85.5</v>
       </c>
-      <c r="P169" s="6">
+      <c r="P169" s="4">
         <v>90.9</v>
       </c>
-      <c r="Q169" s="6">
+      <c r="Q169" s="4">
         <v>92.9</v>
       </c>
-      <c r="R169" s="6">
+      <c r="R169" s="4">
         <v>93.1</v>
       </c>
-      <c r="S169" s="6">
+      <c r="S169" s="4">
         <v>92.3</v>
       </c>
-      <c r="T169" s="6">
+      <c r="T169" s="4">
         <v>97.2</v>
       </c>
-      <c r="U169" s="6">
+      <c r="U169" s="4">
         <v>104.9</v>
       </c>
-      <c r="V169" s="6">
+      <c r="V169" s="4">
         <v>111.5</v>
       </c>
-      <c r="W169" s="6">
+      <c r="W169" s="4">
         <v>110.3</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="5">
         <v>12487969</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="4">
         <v>34.6</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="4">
         <v>39</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F170" s="4">
         <v>45.1</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G170" s="4">
         <v>52.1</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H170" s="4">
         <v>58.9</v>
       </c>
-      <c r="I170" s="6">
+      <c r="I170" s="4">
         <v>65.400000000000006</v>
       </c>
-      <c r="J170" s="6">
+      <c r="J170" s="4">
         <v>70.3</v>
       </c>
-      <c r="K170" s="6">
+      <c r="K170" s="4">
         <v>74.3</v>
       </c>
-      <c r="L170" s="6">
+      <c r="L170" s="4">
         <v>77.099999999999994</v>
       </c>
-      <c r="M170" s="6">
+      <c r="M170" s="4">
         <v>78.2</v>
       </c>
-      <c r="N170" s="6">
+      <c r="N170" s="4">
         <v>78.8</v>
       </c>
-      <c r="O170" s="6">
+      <c r="O170" s="4">
         <v>75.900000000000006</v>
       </c>
-      <c r="P170" s="6">
+      <c r="P170" s="4">
         <v>71.599999999999994</v>
       </c>
-      <c r="Q170" s="6">
+      <c r="Q170" s="4">
         <v>66.400000000000006</v>
       </c>
-      <c r="R170" s="6">
+      <c r="R170" s="4">
         <v>64.8</v>
       </c>
-      <c r="S170" s="6">
+      <c r="S170" s="4">
         <v>62.4</v>
       </c>
-      <c r="T170" s="6">
+      <c r="T170" s="4">
         <v>53.6</v>
       </c>
-      <c r="U170" s="6">
+      <c r="U170" s="4">
         <v>43.4</v>
       </c>
-      <c r="V170" s="6">
+      <c r="V170" s="4">
         <v>35.1</v>
       </c>
-      <c r="W170" s="6">
+      <c r="W170" s="4">
         <v>33.4</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="5"/>
       <c r="B171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="4">
         <v>116.6</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="4">
         <v>113.5</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="4">
         <v>106.8</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F171" s="4">
         <v>94.4</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G171" s="4">
         <v>84.3</v>
       </c>
-      <c r="H171" s="6">
+      <c r="H171" s="4">
         <v>74.900000000000006</v>
       </c>
-      <c r="I171" s="6">
+      <c r="I171" s="4">
         <v>66.3</v>
       </c>
-      <c r="J171" s="6">
+      <c r="J171" s="4">
         <v>61.1</v>
       </c>
-      <c r="K171" s="6">
+      <c r="K171" s="4">
         <v>56.6</v>
       </c>
-      <c r="L171" s="6">
+      <c r="L171" s="4">
         <v>55.8</v>
       </c>
-      <c r="M171" s="6">
+      <c r="M171" s="4">
         <v>56.2</v>
       </c>
-      <c r="N171" s="6">
+      <c r="N171" s="4">
         <v>58.1</v>
       </c>
-      <c r="O171" s="6">
+      <c r="O171" s="4">
         <v>59.9</v>
       </c>
-      <c r="P171" s="6">
+      <c r="P171" s="4">
         <v>72.099999999999994</v>
       </c>
-      <c r="Q171" s="6">
+      <c r="Q171" s="4">
         <v>82.3</v>
       </c>
-      <c r="R171" s="6">
+      <c r="R171" s="4">
         <v>87.7</v>
       </c>
-      <c r="S171" s="6">
+      <c r="S171" s="4">
         <v>92.5</v>
       </c>
-      <c r="T171" s="6">
+      <c r="T171" s="4">
         <v>96.8</v>
       </c>
-      <c r="U171" s="6">
+      <c r="U171" s="4">
         <v>109.2</v>
       </c>
-      <c r="V171" s="6">
+      <c r="V171" s="4">
         <v>117.2</v>
       </c>
-      <c r="W171" s="6">
+      <c r="W171" s="4">
         <v>116.6</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
+      <c r="A172" s="5"/>
       <c r="B172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="4">
         <v>39.200000000000003</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="4">
         <v>43.6</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="4">
         <v>49.9</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F172" s="4">
         <v>53.9</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G172" s="4">
         <v>55.7</v>
       </c>
-      <c r="H172" s="6">
+      <c r="H172" s="4">
         <v>61.8</v>
       </c>
-      <c r="I172" s="6">
+      <c r="I172" s="4">
         <v>65.099999999999994</v>
       </c>
-      <c r="J172" s="6">
+      <c r="J172" s="4">
         <v>69</v>
       </c>
-      <c r="K172" s="6">
+      <c r="K172" s="4">
         <v>74.5</v>
       </c>
-      <c r="L172" s="6">
+      <c r="L172" s="4">
         <v>78.2</v>
       </c>
-      <c r="M172" s="6">
+      <c r="M172" s="4">
         <v>80.2</v>
       </c>
-      <c r="N172" s="6">
+      <c r="N172" s="4">
         <v>79.400000000000006</v>
       </c>
-      <c r="O172" s="6">
+      <c r="O172" s="4">
         <v>72.099999999999994</v>
       </c>
-      <c r="P172" s="6">
+      <c r="P172" s="4">
         <v>64.2</v>
       </c>
-      <c r="Q172" s="6">
+      <c r="Q172" s="4">
         <v>63.1</v>
       </c>
-      <c r="R172" s="6">
+      <c r="R172" s="4">
         <v>62.4</v>
       </c>
-      <c r="S172" s="6">
+      <c r="S172" s="4">
         <v>62.1</v>
       </c>
-      <c r="T172" s="6">
+      <c r="T172" s="4">
         <v>54</v>
       </c>
-      <c r="U172" s="6">
+      <c r="U172" s="4">
         <v>42.1</v>
       </c>
-      <c r="V172" s="6">
+      <c r="V172" s="4">
         <v>35</v>
       </c>
-      <c r="W172" s="6">
+      <c r="W172" s="4">
         <v>39.299999999999997</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="A173" s="5"/>
       <c r="B173" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="4">
         <v>116</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="4">
         <v>110.2</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="4">
         <v>101.1</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F173" s="4">
         <v>90.4</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G173" s="4">
         <v>80.7</v>
       </c>
-      <c r="H173" s="6">
+      <c r="H173" s="4">
         <v>70.400000000000006</v>
       </c>
-      <c r="I173" s="6">
+      <c r="I173" s="4">
         <v>59.8</v>
       </c>
-      <c r="J173" s="6">
+      <c r="J173" s="4">
         <v>53.2</v>
       </c>
-      <c r="K173" s="6">
+      <c r="K173" s="4">
         <v>48.1</v>
       </c>
-      <c r="L173" s="6">
+      <c r="L173" s="4">
         <v>48.3</v>
       </c>
-      <c r="M173" s="6">
+      <c r="M173" s="4">
         <v>49.6</v>
       </c>
-      <c r="N173" s="6">
+      <c r="N173" s="4">
         <v>55.7</v>
       </c>
-      <c r="O173" s="6">
+      <c r="O173" s="4">
         <v>64.5</v>
       </c>
-      <c r="P173" s="6">
+      <c r="P173" s="4">
         <v>76.8</v>
       </c>
-      <c r="Q173" s="6">
+      <c r="Q173" s="4">
         <v>81</v>
       </c>
-      <c r="R173" s="6">
+      <c r="R173" s="4">
         <v>84.1</v>
       </c>
-      <c r="S173" s="6">
+      <c r="S173" s="4">
         <v>87.5</v>
       </c>
-      <c r="T173" s="6">
+      <c r="T173" s="4">
         <v>95.4</v>
       </c>
-      <c r="U173" s="6">
+      <c r="U173" s="4">
         <v>109.2</v>
       </c>
-      <c r="V173" s="6">
+      <c r="V173" s="4">
         <v>116.9</v>
       </c>
-      <c r="W173" s="6">
+      <c r="W173" s="4">
         <v>116.1</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="5">
         <v>12498262</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -12515,7 +12536,7 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="5"/>
       <c r="B175" s="1" t="s">
         <v>3</v>
       </c>
@@ -12584,7 +12605,7 @@
       </c>
     </row>
     <row r="176" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
+      <c r="A176" s="5"/>
       <c r="B176" s="1" t="s">
         <v>4</v>
       </c>
@@ -12653,7 +12674,7 @@
       </c>
     </row>
     <row r="177" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="5"/>
       <c r="B177" s="1" t="s">
         <v>5</v>
       </c>
@@ -12722,7 +12743,7 @@
       </c>
     </row>
     <row r="178" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="5">
         <v>12496557</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -12793,7 +12814,7 @@
       </c>
     </row>
     <row r="179" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="5"/>
       <c r="B179" s="1" t="s">
         <v>3</v>
       </c>
@@ -12862,7 +12883,7 @@
       </c>
     </row>
     <row r="180" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
+      <c r="A180" s="5"/>
       <c r="B180" s="1" t="s">
         <v>4</v>
       </c>
@@ -12931,7 +12952,7 @@
       </c>
     </row>
     <row r="181" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+      <c r="A181" s="5"/>
       <c r="B181" s="1" t="s">
         <v>5</v>
       </c>
@@ -13000,7 +13021,7 @@
       </c>
     </row>
     <row r="182" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="5">
         <v>12499298</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -13071,7 +13092,7 @@
       </c>
     </row>
     <row r="183" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
+      <c r="A183" s="5"/>
       <c r="B183" s="1" t="s">
         <v>3</v>
       </c>
@@ -13140,7 +13161,7 @@
       </c>
     </row>
     <row r="184" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="5"/>
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
@@ -13209,7 +13230,7 @@
       </c>
     </row>
     <row r="185" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
+      <c r="A185" s="5"/>
       <c r="B185" s="1" t="s">
         <v>5</v>
       </c>
@@ -13278,332 +13299,1448 @@
       </c>
     </row>
     <row r="186" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="5">
         <v>12505899</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="4">
         <v>33.4</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="4">
         <v>37.299999999999997</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="4">
         <v>43.8</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186" s="4">
         <v>49.6</v>
       </c>
-      <c r="G186" s="6">
+      <c r="G186" s="4">
         <v>54.2</v>
       </c>
-      <c r="H186" s="6">
+      <c r="H186" s="4">
         <v>59.9</v>
       </c>
-      <c r="I186" s="6">
+      <c r="I186" s="4">
         <v>65.400000000000006</v>
       </c>
-      <c r="J186" s="6">
+      <c r="J186" s="4">
         <v>70.3</v>
       </c>
-      <c r="K186" s="6">
+      <c r="K186" s="4">
         <v>74.7</v>
       </c>
-      <c r="L186" s="6">
+      <c r="L186" s="4">
         <v>77.900000000000006</v>
       </c>
-      <c r="M186" s="6">
+      <c r="M186" s="4">
         <v>79.099999999999994</v>
       </c>
-      <c r="N186" s="6">
+      <c r="N186" s="4">
         <v>75.5</v>
       </c>
-      <c r="O186" s="6">
+      <c r="O186" s="4">
         <v>68.3</v>
       </c>
-      <c r="P186" s="6">
+      <c r="P186" s="4">
         <v>65.5</v>
       </c>
-      <c r="Q186" s="6">
+      <c r="Q186" s="4">
         <v>65.5</v>
       </c>
-      <c r="R186" s="6">
+      <c r="R186" s="4">
         <v>67</v>
       </c>
-      <c r="S186" s="6">
+      <c r="S186" s="4">
         <v>66.900000000000006</v>
       </c>
-      <c r="T186" s="6">
+      <c r="T186" s="4">
         <v>58.4</v>
       </c>
-      <c r="U186" s="6">
+      <c r="U186" s="4">
         <v>42.9</v>
       </c>
-      <c r="V186" s="6">
+      <c r="V186" s="4">
         <v>33.5</v>
       </c>
-      <c r="W186" s="6">
+      <c r="W186" s="4">
         <v>33.4</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="5"/>
       <c r="B187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="4">
         <v>90.1</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="4">
         <v>80.599999999999994</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="4">
         <v>66.900000000000006</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F187" s="4">
         <v>54.3</v>
       </c>
-      <c r="G187" s="6">
+      <c r="G187" s="4">
         <v>41.4</v>
       </c>
-      <c r="H187" s="6">
+      <c r="H187" s="4">
         <v>29.9</v>
       </c>
-      <c r="I187" s="6">
+      <c r="I187" s="4">
         <v>22.1</v>
       </c>
-      <c r="J187" s="6">
+      <c r="J187" s="4">
         <v>18.8</v>
       </c>
-      <c r="K187" s="6">
+      <c r="K187" s="4">
         <v>19</v>
       </c>
-      <c r="L187" s="6">
+      <c r="L187" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="M187" s="6">
+      <c r="M187" s="4">
         <v>24.9</v>
       </c>
-      <c r="N187" s="6">
+      <c r="N187" s="4">
         <v>33.700000000000003</v>
       </c>
-      <c r="O187" s="6">
+      <c r="O187" s="4">
         <v>46.2</v>
       </c>
-      <c r="P187" s="6">
+      <c r="P187" s="4">
         <v>53.5</v>
       </c>
-      <c r="Q187" s="6">
+      <c r="Q187" s="4">
         <v>57.1</v>
       </c>
-      <c r="R187" s="6">
+      <c r="R187" s="4">
         <v>58.8</v>
       </c>
-      <c r="S187" s="6">
+      <c r="S187" s="4">
         <v>59</v>
       </c>
-      <c r="T187" s="6">
+      <c r="T187" s="4">
         <v>66</v>
       </c>
-      <c r="U187" s="6">
+      <c r="U187" s="4">
         <v>80.900000000000006</v>
       </c>
-      <c r="V187" s="6">
+      <c r="V187" s="4">
         <v>90.8</v>
       </c>
-      <c r="W187" s="6">
+      <c r="W187" s="4">
         <v>90.2</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
+      <c r="A188" s="5"/>
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="4">
         <v>33.700000000000003</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="4">
         <v>37.299999999999997</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="4">
         <v>42.7</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188" s="4">
         <v>45.8</v>
       </c>
-      <c r="G188" s="6">
+      <c r="G188" s="4">
         <v>48.4</v>
       </c>
-      <c r="H188" s="6">
+      <c r="H188" s="4">
         <v>52.8</v>
       </c>
-      <c r="I188" s="6">
+      <c r="I188" s="4">
         <v>57.7</v>
       </c>
-      <c r="J188" s="6">
+      <c r="J188" s="4">
         <v>61.8</v>
       </c>
-      <c r="K188" s="6">
+      <c r="K188" s="4">
         <v>65.2</v>
       </c>
-      <c r="L188" s="6">
+      <c r="L188" s="4">
         <v>69.3</v>
       </c>
-      <c r="M188" s="6">
+      <c r="M188" s="4">
         <v>71.400000000000006</v>
       </c>
-      <c r="N188" s="6">
+      <c r="N188" s="4">
         <v>68.400000000000006</v>
       </c>
-      <c r="O188" s="6">
+      <c r="O188" s="4">
         <v>64.8</v>
       </c>
-      <c r="P188" s="6">
+      <c r="P188" s="4">
         <v>60.8</v>
       </c>
-      <c r="Q188" s="6">
+      <c r="Q188" s="4">
         <v>58.9</v>
       </c>
-      <c r="R188" s="6">
+      <c r="R188" s="4">
         <v>58.1</v>
       </c>
-      <c r="S188" s="6">
+      <c r="S188" s="4">
         <v>58.1</v>
       </c>
-      <c r="T188" s="6">
+      <c r="T188" s="4">
         <v>48.8</v>
       </c>
-      <c r="U188" s="6">
+      <c r="U188" s="4">
         <v>35.9</v>
       </c>
-      <c r="V188" s="6">
+      <c r="V188" s="4">
         <v>29.3</v>
       </c>
-      <c r="W188" s="6">
+      <c r="W188" s="4">
         <v>32.9</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="5"/>
       <c r="B189" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="4">
         <v>111.9</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="4">
         <v>104.5</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="4">
         <v>90.7</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F189" s="4">
         <v>74.8</v>
       </c>
-      <c r="G189" s="6">
+      <c r="G189" s="4">
         <v>62.2</v>
       </c>
-      <c r="H189" s="6">
+      <c r="H189" s="4">
         <v>52.4</v>
       </c>
-      <c r="I189" s="6">
+      <c r="I189" s="4">
         <v>42.9</v>
       </c>
-      <c r="J189" s="6">
+      <c r="J189" s="4">
         <v>37.4</v>
       </c>
-      <c r="K189" s="6">
+      <c r="K189" s="4">
         <v>35.6</v>
       </c>
-      <c r="L189" s="6">
+      <c r="L189" s="4">
         <v>37.1</v>
       </c>
-      <c r="M189" s="6">
+      <c r="M189" s="4">
         <v>39.1</v>
       </c>
-      <c r="N189" s="6">
+      <c r="N189" s="4">
         <v>46.3</v>
       </c>
-      <c r="O189" s="6">
+      <c r="O189" s="4">
         <v>56.6</v>
       </c>
-      <c r="P189" s="6">
+      <c r="P189" s="4">
         <v>64.2</v>
       </c>
-      <c r="Q189" s="6">
+      <c r="Q189" s="4">
         <v>69.5</v>
       </c>
-      <c r="R189" s="6">
+      <c r="R189" s="4">
         <v>74.099999999999994</v>
       </c>
-      <c r="S189" s="6">
+      <c r="S189" s="4">
         <v>77.7</v>
       </c>
-      <c r="T189" s="6">
+      <c r="T189" s="4">
         <v>88.4</v>
       </c>
-      <c r="U189" s="6">
+      <c r="U189" s="4">
         <v>106.1</v>
       </c>
-      <c r="V189" s="6">
+      <c r="V189" s="4">
         <v>113.5</v>
       </c>
-      <c r="W189" s="6">
+      <c r="W189" s="4">
         <v>112.8</v>
       </c>
     </row>
+    <row r="190" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>12498021</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="D190" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="E190" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="F190" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="G190" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="H190" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="I190" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="J190" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="K190" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="L190" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="M190" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="N190" s="1">
+        <v>71</v>
+      </c>
+      <c r="O190" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="P190" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>65</v>
+      </c>
+      <c r="R190" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="S190" s="1">
+        <v>69</v>
+      </c>
+      <c r="T190" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="U190" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="V190" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="W190" s="1">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="D191" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="E191" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F191" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="G191" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="H191" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I191" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="J191" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="K191" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="L191" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="M191" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="N191" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="O191" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="P191" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="R191" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="S191" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="T191" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="U191" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="V191" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="W191" s="1">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="E192" s="1">
+        <v>55</v>
+      </c>
+      <c r="F192" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="G192" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="H192" s="1">
+        <v>77</v>
+      </c>
+      <c r="I192" s="1">
+        <v>83.8</v>
+      </c>
+      <c r="J192" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="K192" s="1">
+        <v>98.4</v>
+      </c>
+      <c r="L192" s="1">
+        <v>103.8</v>
+      </c>
+      <c r="M192" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="N192" s="1">
+        <v>98</v>
+      </c>
+      <c r="O192" s="1">
+        <v>91</v>
+      </c>
+      <c r="P192" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="R192" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="S192" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="T192" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="U192" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="V192" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="W192" s="1">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>155.6</v>
+      </c>
+      <c r="D193" s="1">
+        <v>146.1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>136.9</v>
+      </c>
+      <c r="F193" s="1">
+        <v>120.5</v>
+      </c>
+      <c r="G193" s="1">
+        <v>103.3</v>
+      </c>
+      <c r="H193" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="I193" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="J193" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="K193" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="L193" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="M193" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="N193" s="1">
+        <v>76</v>
+      </c>
+      <c r="O193" s="1">
+        <v>91.9</v>
+      </c>
+      <c r="P193" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>107.1</v>
+      </c>
+      <c r="R193" s="1">
+        <v>115.3</v>
+      </c>
+      <c r="S193" s="1">
+        <v>119.5</v>
+      </c>
+      <c r="T193" s="1">
+        <v>122.8</v>
+      </c>
+      <c r="U193" s="1">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="V193" s="1">
+        <v>152.4</v>
+      </c>
+      <c r="W193" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>12515254</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1">
+        <v>16</v>
+      </c>
+      <c r="D194" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>26</v>
+      </c>
+      <c r="F194" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="G194" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H194" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="I194" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J194" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="K194" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="L194" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="M194" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="N194" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O194" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="P194" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>32</v>
+      </c>
+      <c r="R194" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="S194" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="T194" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="U194" s="1">
+        <v>19</v>
+      </c>
+      <c r="V194" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="W194" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D195" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="E195" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="F195" s="1">
+        <v>36.9</v>
+      </c>
+      <c r="G195" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="H195" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I195" s="1">
+        <v>19</v>
+      </c>
+      <c r="J195" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K195" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="L195" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="M195" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="N195" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="O195" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="P195" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>53</v>
+      </c>
+      <c r="R195" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="S195" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="T195" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="U195" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="V195" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="W195" s="1">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D196" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="E196" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="F196" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="G196" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="H196" s="1">
+        <v>57</v>
+      </c>
+      <c r="I196" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="J196" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="K196" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="L196" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="M196" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="N196" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="O196" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="P196" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="R196" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="S196" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="T196" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="U196" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="V196" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="W196" s="1">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="1">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="D197" s="1">
+        <v>122.7</v>
+      </c>
+      <c r="E197" s="1">
+        <v>110.8</v>
+      </c>
+      <c r="F197" s="1">
+        <v>99.2</v>
+      </c>
+      <c r="G197" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H197" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="I197" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="J197" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="K197" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="L197" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="M197" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="N197" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="O197" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="P197" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="Q197" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="R197" s="1">
+        <v>102.9</v>
+      </c>
+      <c r="S197" s="1">
+        <v>107.5</v>
+      </c>
+      <c r="T197" s="1">
+        <v>112.3</v>
+      </c>
+      <c r="U197" s="1">
+        <v>119.1</v>
+      </c>
+      <c r="V197" s="1">
+        <v>127</v>
+      </c>
+      <c r="W197" s="1">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <v>12320234</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D198" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E198" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="F198" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="G198" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="H198" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I198" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="J198" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K198" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="L198" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="M198" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="N198" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="O198" s="1">
+        <v>68</v>
+      </c>
+      <c r="P198" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="R198" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="S198" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="T198" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="U198" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="V198" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="W198" s="1">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1">
+        <v>111.1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="E199" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="F199" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="G199" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="H199" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="I199" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="J199" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="K199" s="1">
+        <v>32</v>
+      </c>
+      <c r="L199" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="M199" s="1">
+        <v>35</v>
+      </c>
+      <c r="N199" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="O199" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="P199" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="R199" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="S199" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="T199" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="U199" s="1">
+        <v>100.8</v>
+      </c>
+      <c r="V199" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="W199" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="E200" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="F200" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="G200" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="H200" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="I200" s="1">
+        <v>99.2</v>
+      </c>
+      <c r="J200" s="1">
+        <v>108.8</v>
+      </c>
+      <c r="K200" s="1">
+        <v>114.3</v>
+      </c>
+      <c r="L200" s="1">
+        <v>115.5</v>
+      </c>
+      <c r="M200" s="1">
+        <v>113.5</v>
+      </c>
+      <c r="N200" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="O200" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="P200" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="R200" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="S200" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="T200" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="U200" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="V200" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="W200" s="1">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="D201" s="1">
+        <v>134.1</v>
+      </c>
+      <c r="E201" s="1">
+        <v>119.9</v>
+      </c>
+      <c r="F201" s="1">
+        <v>106.6</v>
+      </c>
+      <c r="G201" s="1">
+        <v>92</v>
+      </c>
+      <c r="H201" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="I201" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="J201" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="K201" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="L201" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="M201" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="N201" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="O201" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="P201" s="1">
+        <v>108.8</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>118.6</v>
+      </c>
+      <c r="R201" s="1">
+        <v>119.7</v>
+      </c>
+      <c r="S201" s="1">
+        <v>121.2</v>
+      </c>
+      <c r="T201" s="1">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="U201" s="1">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="V201" s="1">
+        <v>146.9</v>
+      </c>
+      <c r="W201" s="1">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
+        <v>12509796</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="D202" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="F202" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="G202" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="H202" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="I202" s="1">
+        <v>74</v>
+      </c>
+      <c r="J202" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K202" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="L202" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="M202" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="N202" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="O202" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="P202" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="R202" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="S202" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="T202" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="U202" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="V202" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="W202" s="1">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="1">
+        <v>127.2</v>
+      </c>
+      <c r="D203" s="1">
+        <v>117.3</v>
+      </c>
+      <c r="E203" s="1">
+        <v>101.1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="G203" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H203" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I203" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="J203" s="1">
+        <v>42</v>
+      </c>
+      <c r="K203" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="L203" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="M203" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="N203" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="O203" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="P203" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>105.8</v>
+      </c>
+      <c r="R203" s="1">
+        <v>108.6</v>
+      </c>
+      <c r="S203" s="1">
+        <v>110.3</v>
+      </c>
+      <c r="T203" s="1">
+        <v>112.4</v>
+      </c>
+      <c r="U203" s="1">
+        <v>119.2</v>
+      </c>
+      <c r="V203" s="1">
+        <v>128.6</v>
+      </c>
+      <c r="W203" s="1">
+        <v>127.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="D204" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="E204" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F204" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="G204" s="1">
+        <v>90</v>
+      </c>
+      <c r="H204" s="1">
+        <v>92.7</v>
+      </c>
+      <c r="I204" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="J204" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="K204" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="L204" s="1">
+        <v>103.3</v>
+      </c>
+      <c r="M204" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="N204" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="O204" s="1">
+        <v>76</v>
+      </c>
+      <c r="P204" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="R204" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="S204" s="1">
+        <v>83</v>
+      </c>
+      <c r="T204" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="U204" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="V204" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="W204" s="1">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="1">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="D205" s="1">
+        <v>151.9</v>
+      </c>
+      <c r="E205" s="1">
+        <v>139.1</v>
+      </c>
+      <c r="F205" s="1">
+        <v>120.8</v>
+      </c>
+      <c r="G205" s="1">
+        <v>101.5</v>
+      </c>
+      <c r="H205" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="I205" s="1">
+        <v>77</v>
+      </c>
+      <c r="J205" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="K205" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="L205" s="1">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="M205" s="1">
+        <v>100.8</v>
+      </c>
+      <c r="N205" s="1">
+        <v>119.3</v>
+      </c>
+      <c r="O205" s="1">
+        <v>126.3</v>
+      </c>
+      <c r="P205" s="1">
+        <v>129.4</v>
+      </c>
+      <c r="Q205" s="1">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="R205" s="1">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="S205" s="1">
+        <v>133</v>
+      </c>
+      <c r="T205" s="1">
+        <v>141.9</v>
+      </c>
+      <c r="U205" s="1">
+        <v>156.6</v>
+      </c>
+      <c r="V205" s="1">
+        <v>166</v>
+      </c>
+      <c r="W205" s="1">
+        <v>159.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="51">
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="A150:A153"/>
     <mergeCell ref="A186:A189"/>
     <mergeCell ref="A182:A185"/>
     <mergeCell ref="A178:A181"/>
     <mergeCell ref="A174:A177"/>
     <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ex3.xlsx
+++ b/ex3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\rarvproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADC6CE-437B-45BE-A9C8-284BD5029887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C43EC5-EFF9-4CEB-B0AE-C49DDACABDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="6">
   <si>
     <t>影像号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR205"/>
+  <dimension ref="A1:AR257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190:W205"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254:B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14688,8 +14689,3670 @@
         <v>159.9</v>
       </c>
     </row>
+    <row r="206" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
+        <v>12515825</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="D206" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="E206" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="F206" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="G206" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H206" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="I206" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="J206" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="K206" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="L206" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="M206" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="N206" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="O206" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="P206" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="R206" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="S206" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="T206" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="U206" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="V206" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="W206" s="1">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="D207" s="1">
+        <v>92.7</v>
+      </c>
+      <c r="E207" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F207" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="G207" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="H207" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="I207" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="J207" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="K207" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L207" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="M207" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="N207" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="O207" s="1">
+        <v>62</v>
+      </c>
+      <c r="P207" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>71</v>
+      </c>
+      <c r="R207" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="S207" s="1">
+        <v>72</v>
+      </c>
+      <c r="T207" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="U207" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="V207" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="W207" s="1">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D208" s="1">
+        <v>42</v>
+      </c>
+      <c r="E208" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="F208" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="G208" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="H208" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="I208" s="1">
+        <v>70</v>
+      </c>
+      <c r="J208" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="K208" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="L208" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="M208" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="N208" s="1">
+        <v>68</v>
+      </c>
+      <c r="O208" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="P208" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="R208" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="S208" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="T208" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="U208" s="1">
+        <v>62</v>
+      </c>
+      <c r="V208" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="W208" s="1">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="1">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="D209" s="1">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="E209" s="1">
+        <v>116.3</v>
+      </c>
+      <c r="F209" s="1">
+        <v>100</v>
+      </c>
+      <c r="G209" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="H209" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="I209" s="1">
+        <v>62</v>
+      </c>
+      <c r="J209" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="K209" s="1">
+        <v>66</v>
+      </c>
+      <c r="L209" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="M209" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="N209" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="O209" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="P209" s="1">
+        <v>105</v>
+      </c>
+      <c r="Q209" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="R209" s="1">
+        <v>108.2</v>
+      </c>
+      <c r="S209" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="T209" s="1">
+        <v>109.4</v>
+      </c>
+      <c r="U209" s="1">
+        <v>116.1</v>
+      </c>
+      <c r="V209" s="1">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="W209" s="1">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <v>12515856</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="D210" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E210" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="F210" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="G210" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="H210" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="I210" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="J210" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="K210" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="L210" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="M210" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="N210" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="O210" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="P210" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>45</v>
+      </c>
+      <c r="R210" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="S210" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="T210" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="U210" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="V210" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="W210" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="D211" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E211" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="F211" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="G211" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="H211" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="I211" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="J211" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="K211" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L211" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="M211" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="N211" s="1">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="O211" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="P211" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="R211" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="S211" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="T211" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="U211" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="V211" s="1">
+        <v>89</v>
+      </c>
+      <c r="W211" s="1">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D212" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="F212" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="G212" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H212" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I212" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="J212" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="K212" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="L212" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="M212" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="N212" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="O212" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="P212" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="Q212" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="R212" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="S212" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="T212" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="U212" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="V212" s="1">
+        <v>33</v>
+      </c>
+      <c r="W212" s="1">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="1">
+        <v>106.8</v>
+      </c>
+      <c r="D213" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>88</v>
+      </c>
+      <c r="F213" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="G213" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="H213" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="I213" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="J213" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="K213" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="L213" s="1">
+        <v>85</v>
+      </c>
+      <c r="M213" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="N213" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="O213" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="P213" s="1">
+        <v>90.9</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="R213" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="S213" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="T213" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="U213" s="1">
+        <v>97.4</v>
+      </c>
+      <c r="V213" s="1">
+        <v>110.1</v>
+      </c>
+      <c r="W213" s="1">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
+        <v>12515872</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="D214" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="E214" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="F214" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G214" s="1">
+        <v>74</v>
+      </c>
+      <c r="H214" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="I214" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="J214" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="K214" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="L214" s="1">
+        <v>94</v>
+      </c>
+      <c r="M214" s="1">
+        <v>93</v>
+      </c>
+      <c r="N214" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="O214" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="P214" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="Q214" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="R214" s="1">
+        <v>81</v>
+      </c>
+      <c r="S214" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="T214" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="U214" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="V214" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="W214" s="1">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="D215" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="E215" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F215" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="G215" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="H215" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="I215" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="J215" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K215" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="L215" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="M215" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="N215" s="1">
+        <v>31</v>
+      </c>
+      <c r="O215" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="P215" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="Q215" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="R215" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="S215" s="1">
+        <v>78</v>
+      </c>
+      <c r="T215" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="U215" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="V215" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="W215" s="1">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1">
+        <v>65.7</v>
+      </c>
+      <c r="D216" s="1">
+        <v>71</v>
+      </c>
+      <c r="E216" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="F216" s="1">
+        <v>90</v>
+      </c>
+      <c r="G216" s="1">
+        <v>98.4</v>
+      </c>
+      <c r="H216" s="1">
+        <v>108.1</v>
+      </c>
+      <c r="I216" s="1">
+        <v>110</v>
+      </c>
+      <c r="J216" s="1">
+        <v>110.5</v>
+      </c>
+      <c r="K216" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="L216" s="1">
+        <v>105</v>
+      </c>
+      <c r="M216" s="1">
+        <v>109.2</v>
+      </c>
+      <c r="N216" s="1">
+        <v>117</v>
+      </c>
+      <c r="O216" s="1">
+        <v>116.6</v>
+      </c>
+      <c r="P216" s="1">
+        <v>113.1</v>
+      </c>
+      <c r="Q216" s="1">
+        <v>101.2</v>
+      </c>
+      <c r="R216" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="S216" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="T216" s="1">
+        <v>70</v>
+      </c>
+      <c r="U216" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="V216" s="1">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="W216" s="1">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="1">
+        <v>121.4</v>
+      </c>
+      <c r="D217" s="1">
+        <v>115.9</v>
+      </c>
+      <c r="E217" s="1">
+        <v>105.5</v>
+      </c>
+      <c r="F217" s="1">
+        <v>92.3</v>
+      </c>
+      <c r="G217" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="H217" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I217" s="1">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J217" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="K217" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="L217" s="1">
+        <v>74</v>
+      </c>
+      <c r="M217" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N217" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O217" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="P217" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="R217" s="1">
+        <v>101.3</v>
+      </c>
+      <c r="S217" s="1">
+        <v>117.4</v>
+      </c>
+      <c r="T217" s="1">
+        <v>120.5</v>
+      </c>
+      <c r="U217" s="1">
+        <v>129</v>
+      </c>
+      <c r="V217" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="W217" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>12515859</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D218" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="E218" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="F218" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="G218" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="H218" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="I218" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="J218" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="K218" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="L218" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="M218" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="N218" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="O218" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="P218" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="R218" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="S218" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="T218" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="U218" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="V218" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="W218" s="1">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="D219" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="E219" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="F219" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="G219" s="1">
+        <v>48</v>
+      </c>
+      <c r="H219" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="I219" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J219" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="K219" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="L219" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="M219" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="N219" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="O219" s="1">
+        <v>78</v>
+      </c>
+      <c r="P219" s="1">
+        <v>83.3</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="R219" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="S219" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="T219" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="U219" s="1">
+        <v>101.2</v>
+      </c>
+      <c r="V219" s="1">
+        <v>107.3</v>
+      </c>
+      <c r="W219" s="1">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="E220" s="1">
+        <v>60</v>
+      </c>
+      <c r="F220" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="G220" s="1">
+        <v>69</v>
+      </c>
+      <c r="H220" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="I220" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="J220" s="1">
+        <v>85</v>
+      </c>
+      <c r="K220" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="L220" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="M220" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="N220" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="O220" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="P220" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="Q220" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="R220" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="S220" s="1">
+        <v>65</v>
+      </c>
+      <c r="T220" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="U220" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="V220" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="W220" s="1">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="1">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="D221" s="1">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="E221" s="1">
+        <v>126.3</v>
+      </c>
+      <c r="F221" s="1">
+        <v>107</v>
+      </c>
+      <c r="G221" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="H221" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="I221" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="J221" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="K221" s="1">
+        <v>65</v>
+      </c>
+      <c r="L221" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M221" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="N221" s="1">
+        <v>105.5</v>
+      </c>
+      <c r="O221" s="1">
+        <v>115.8</v>
+      </c>
+      <c r="P221" s="1">
+        <v>119.7</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>120.9</v>
+      </c>
+      <c r="R221" s="1">
+        <v>121.3</v>
+      </c>
+      <c r="S221" s="1">
+        <v>124.2</v>
+      </c>
+      <c r="T221" s="1">
+        <v>136</v>
+      </c>
+      <c r="U221" s="1">
+        <v>146.9</v>
+      </c>
+      <c r="V221" s="1">
+        <v>150.4</v>
+      </c>
+      <c r="W221" s="1">
+        <v>146.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
+        <v>12515877</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="D222" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="E222" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="F222" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="G222" s="1">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H222" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="I222" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="J222" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="K222" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="L222" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="M222" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="N222" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="O222" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="P222" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q222" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="R222" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="S222" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="T222" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U222" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="V222" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="W222" s="1">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1">
+        <v>104.7</v>
+      </c>
+      <c r="D223" s="1">
+        <v>96.6</v>
+      </c>
+      <c r="E223" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F223" s="1">
+        <v>59</v>
+      </c>
+      <c r="G223" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="H223" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="I223" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="J223" s="1">
+        <v>31</v>
+      </c>
+      <c r="K223" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="L223" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="M223" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="N223" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="O223" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="P223" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="Q223" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="R223" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="S223" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="T223" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="U223" s="1">
+        <v>98</v>
+      </c>
+      <c r="V223" s="1">
+        <v>108.6</v>
+      </c>
+      <c r="W223" s="1">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="D224" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="E224" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="F224" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G224" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="H224" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I224" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="J224" s="1">
+        <v>85.1</v>
+      </c>
+      <c r="K224" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="L224" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="M224" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="N224" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="O224" s="1">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="P224" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="Q224" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R224" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="S224" s="1">
+        <v>72.2</v>
+      </c>
+      <c r="T224" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="U224" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="V224" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="W224" s="1">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="1">
+        <v>151.1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>145.6</v>
+      </c>
+      <c r="E225" s="1">
+        <v>131.5</v>
+      </c>
+      <c r="F225" s="1">
+        <v>113.7</v>
+      </c>
+      <c r="G225" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="H225" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="I225" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="J225" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K225" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="L225" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="M225" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="N225" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="O225" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="P225" s="1">
+        <v>113.8</v>
+      </c>
+      <c r="Q225" s="1">
+        <v>118.4</v>
+      </c>
+      <c r="R225" s="1">
+        <v>119.5</v>
+      </c>
+      <c r="S225" s="1">
+        <v>119.5</v>
+      </c>
+      <c r="T225" s="1">
+        <v>125.5</v>
+      </c>
+      <c r="U225" s="1">
+        <v>139.4</v>
+      </c>
+      <c r="V225" s="1">
+        <v>149.1</v>
+      </c>
+      <c r="W225" s="1">
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
+        <v>11380130</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1">
+        <v>47</v>
+      </c>
+      <c r="D226" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>56</v>
+      </c>
+      <c r="F226" s="1">
+        <v>63</v>
+      </c>
+      <c r="G226" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="H226" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="I226" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="J226" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K226" s="1">
+        <v>83.3</v>
+      </c>
+      <c r="L226" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="M226" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="N226" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="O226" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="P226" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="Q226" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="R226" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="S226" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="T226" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="U226" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="V226" s="1">
+        <v>46</v>
+      </c>
+      <c r="W226" s="1">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="D227" s="1">
+        <v>101.1</v>
+      </c>
+      <c r="E227" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="F227" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="G227" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="H227" s="1">
+        <v>55</v>
+      </c>
+      <c r="I227" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="J227" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="K227" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="L227" s="1">
+        <v>38</v>
+      </c>
+      <c r="M227" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="N227" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O227" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="P227" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="Q227" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="R227" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="S227" s="1">
+        <v>84</v>
+      </c>
+      <c r="T227" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="U227" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="V227" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="W227" s="1">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
+      <c r="B228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="D228" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="E228" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="F228" s="1">
+        <v>56</v>
+      </c>
+      <c r="G228" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="H228" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="I228" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="J228" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="K228" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="L228" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="M228" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="N228" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="O228" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="P228" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="Q228" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="R228" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="S228" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="T228" s="1">
+        <v>54</v>
+      </c>
+      <c r="U228" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="V228" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="W228" s="1">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="1">
+        <v>136.6</v>
+      </c>
+      <c r="D229" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="E229" s="1">
+        <v>127.4</v>
+      </c>
+      <c r="F229" s="1">
+        <v>116.7</v>
+      </c>
+      <c r="G229" s="1">
+        <v>106.3</v>
+      </c>
+      <c r="H229" s="1">
+        <v>95</v>
+      </c>
+      <c r="I229" s="1">
+        <v>84</v>
+      </c>
+      <c r="J229" s="1">
+        <v>76</v>
+      </c>
+      <c r="K229" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="L229" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="M229" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="N229" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="O229" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="P229" s="1">
+        <v>83</v>
+      </c>
+      <c r="Q229" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="R229" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="S229" s="1">
+        <v>108.7</v>
+      </c>
+      <c r="T229" s="1">
+        <v>121.4</v>
+      </c>
+      <c r="U229" s="1">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="V229" s="1">
+        <v>136.9</v>
+      </c>
+      <c r="W229" s="1">
+        <v>136.69999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
+        <v>12516117</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D230" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="F230" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="G230" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="H230" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="I230" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J230" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="K230" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="L230" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="M230" s="1">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N230" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="O230" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="P230" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="Q230" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="R230" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="S230" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="T230" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="U230" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="V230" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="W230" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="D231" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F231" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="G231" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="H231" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I231" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="J231" s="1">
+        <v>28</v>
+      </c>
+      <c r="K231" s="1">
+        <v>29</v>
+      </c>
+      <c r="L231" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="M231" s="1">
+        <v>32</v>
+      </c>
+      <c r="N231" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="O231" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="P231" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="Q231" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="R231" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="S231" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="T231" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="U231" s="1">
+        <v>96.6</v>
+      </c>
+      <c r="V231" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="W231" s="1">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="D232" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="E232" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="F232" s="1">
+        <v>67</v>
+      </c>
+      <c r="G232" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H232" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="I232" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="J232" s="1">
+        <v>84.9</v>
+      </c>
+      <c r="K232" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="L232" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="M232" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="N232" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="O232" s="1">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P232" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="Q232" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="R232" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="S232" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="T232" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="U232" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="V232" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="W232" s="1">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" s="1">
+        <v>171.1</v>
+      </c>
+      <c r="D233" s="1">
+        <v>158.5</v>
+      </c>
+      <c r="E233" s="1">
+        <v>151.1</v>
+      </c>
+      <c r="F233" s="1">
+        <v>131.4</v>
+      </c>
+      <c r="G233" s="1">
+        <v>118.2</v>
+      </c>
+      <c r="H233" s="1">
+        <v>100.1</v>
+      </c>
+      <c r="I233" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="J233" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K233" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L233" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="M233" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="N233" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="O233" s="1">
+        <v>107</v>
+      </c>
+      <c r="P233" s="1">
+        <v>121.1</v>
+      </c>
+      <c r="Q233" s="1">
+        <v>127</v>
+      </c>
+      <c r="R233" s="1">
+        <v>133</v>
+      </c>
+      <c r="S233" s="1">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="T233" s="1">
+        <v>157.1</v>
+      </c>
+      <c r="U233" s="1">
+        <v>170.8</v>
+      </c>
+      <c r="V233" s="1">
+        <v>175.2</v>
+      </c>
+      <c r="W233" s="1">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A234" s="5">
+        <v>12516112</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="D234" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="E234" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F234" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="G234" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="H234" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I234" s="1">
+        <v>62</v>
+      </c>
+      <c r="J234" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="K234" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="L234" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="M234" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="N234" s="1">
+        <v>62.3</v>
+      </c>
+      <c r="O234" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="P234" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="Q234" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="R234" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="S234" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="T234" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="U234" s="1">
+        <v>39</v>
+      </c>
+      <c r="V234" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="W234" s="1">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1">
+        <v>104.6</v>
+      </c>
+      <c r="D235" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="E235" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="F235" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="G235" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="H235" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="I235" s="1">
+        <v>36</v>
+      </c>
+      <c r="J235" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="K235" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="L235" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="M235" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="N235" s="1">
+        <v>48</v>
+      </c>
+      <c r="O235" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="P235" s="1">
+        <v>84</v>
+      </c>
+      <c r="Q235" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="R235" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="S235" s="1">
+        <v>88</v>
+      </c>
+      <c r="T235" s="1">
+        <v>92.4</v>
+      </c>
+      <c r="U235" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="V235" s="1">
+        <v>107.5</v>
+      </c>
+      <c r="W235" s="1">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="D236" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E236" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F236" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="G236" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="H236" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="I236" s="1">
+        <v>111.8</v>
+      </c>
+      <c r="J236" s="1">
+        <v>121.5</v>
+      </c>
+      <c r="K236" s="1">
+        <v>126.1</v>
+      </c>
+      <c r="L236" s="1">
+        <v>128</v>
+      </c>
+      <c r="M236" s="1">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="N236" s="1">
+        <v>121</v>
+      </c>
+      <c r="O236" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="P236" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q236" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="R236" s="1">
+        <v>81</v>
+      </c>
+      <c r="S236" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="T236" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="U236" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="V236" s="1">
+        <v>56</v>
+      </c>
+      <c r="W236" s="1">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="B237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="1">
+        <v>162.4</v>
+      </c>
+      <c r="D237" s="1">
+        <v>153.6</v>
+      </c>
+      <c r="E237" s="1">
+        <v>146.6</v>
+      </c>
+      <c r="F237" s="1">
+        <v>130.5</v>
+      </c>
+      <c r="G237" s="1">
+        <v>119.3</v>
+      </c>
+      <c r="H237" s="1">
+        <v>104</v>
+      </c>
+      <c r="I237" s="1">
+        <v>94</v>
+      </c>
+      <c r="J237" s="1">
+        <v>84</v>
+      </c>
+      <c r="K237" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="L237" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="M237" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="N237" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="O237" s="1">
+        <v>127.1</v>
+      </c>
+      <c r="P237" s="1">
+        <v>146.6</v>
+      </c>
+      <c r="Q237" s="1">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="R237" s="1">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="S237" s="1">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="T237" s="1">
+        <v>154.9</v>
+      </c>
+      <c r="U237" s="1">
+        <v>172.8</v>
+      </c>
+      <c r="V237" s="1">
+        <v>175.9</v>
+      </c>
+      <c r="W237" s="1">
+        <v>164.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
+        <v>12516945</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="D238" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="F238" s="1">
+        <v>71</v>
+      </c>
+      <c r="G238" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="H238" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="I238" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="J238" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="K238" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="L238" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="M238" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="N238" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="O238" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="P238" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="Q238" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="R238" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="S238" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="T238" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="U238" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="V238" s="1">
+        <v>52</v>
+      </c>
+      <c r="W238" s="1">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="D239" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="E239" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F239" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="G239" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="H239" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="I239" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="J239" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="K239" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="L239" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="M239" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="N239" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="O239" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="P239" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q239" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="R239" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="S239" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="T239" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="U239" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="V239" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="W239" s="1">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="D240" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="E240" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F240" s="1">
+        <v>82</v>
+      </c>
+      <c r="G240" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="H240" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="I240" s="1">
+        <v>103.8</v>
+      </c>
+      <c r="J240" s="1">
+        <v>105.5</v>
+      </c>
+      <c r="K240" s="1">
+        <v>107</v>
+      </c>
+      <c r="L240" s="1">
+        <v>97.2</v>
+      </c>
+      <c r="M240" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="N240" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="O240" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="P240" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="Q240" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="R240" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="S240" s="1">
+        <v>83</v>
+      </c>
+      <c r="T240" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="U240" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="V240" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="W240" s="1">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="1">
+        <v>155.9</v>
+      </c>
+      <c r="D241" s="1">
+        <v>146.6</v>
+      </c>
+      <c r="E241" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="F241" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="G241" s="1">
+        <v>85.8</v>
+      </c>
+      <c r="H241" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="I241" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="J241" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="K241" s="1">
+        <v>67</v>
+      </c>
+      <c r="L241" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="M241" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="N241" s="1">
+        <v>116.2</v>
+      </c>
+      <c r="O241" s="1">
+        <v>124.8</v>
+      </c>
+      <c r="P241" s="1">
+        <v>125.4</v>
+      </c>
+      <c r="Q241" s="1">
+        <v>123.2</v>
+      </c>
+      <c r="R241" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="S241" s="1">
+        <v>123.9</v>
+      </c>
+      <c r="T241" s="1">
+        <v>126.3</v>
+      </c>
+      <c r="U241" s="1">
+        <v>141.6</v>
+      </c>
+      <c r="V241" s="1">
+        <v>156.4</v>
+      </c>
+      <c r="W241" s="1">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A242" s="5">
+        <v>12516950</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D242" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="E242" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="F242" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="G242" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="H242" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="I242" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J242" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K242" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="L242" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="M242" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="N242" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="O242" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="P242" s="1">
+        <v>61</v>
+      </c>
+      <c r="Q242" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="R242" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="S242" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="T242" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="U242" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="V242" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="W242" s="1">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="1">
+        <v>97.2</v>
+      </c>
+      <c r="D243" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="E243" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="F243" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="G243" s="1">
+        <v>38</v>
+      </c>
+      <c r="H243" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="I243" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="J243" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="K243" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="L243" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="M243" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="N243" s="1">
+        <v>77</v>
+      </c>
+      <c r="O243" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="P243" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q243" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="R243" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="S243" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="T243" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="U243" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="V243" s="1">
+        <v>98.5</v>
+      </c>
+      <c r="W243" s="1">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="1">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D244" s="1">
+        <v>76</v>
+      </c>
+      <c r="E244" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="F244" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="G244" s="1">
+        <v>113.4</v>
+      </c>
+      <c r="H244" s="1">
+        <v>123.1</v>
+      </c>
+      <c r="I244" s="1">
+        <v>126.2</v>
+      </c>
+      <c r="J244" s="1">
+        <v>128.4</v>
+      </c>
+      <c r="K244" s="1">
+        <v>119.2</v>
+      </c>
+      <c r="L244" s="1">
+        <v>100.7</v>
+      </c>
+      <c r="M244" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="N244" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="O244" s="1">
+        <v>94.3</v>
+      </c>
+      <c r="P244" s="1">
+        <v>98.9</v>
+      </c>
+      <c r="Q244" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="R244" s="1">
+        <v>101.3</v>
+      </c>
+      <c r="S244" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="T244" s="1">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="U244" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="V244" s="1">
+        <v>62.3</v>
+      </c>
+      <c r="W244" s="1">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="1">
+        <v>176</v>
+      </c>
+      <c r="D245" s="1">
+        <v>167.9</v>
+      </c>
+      <c r="E245" s="1">
+        <v>145</v>
+      </c>
+      <c r="F245" s="1">
+        <v>118.5</v>
+      </c>
+      <c r="G245" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="H245" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I245" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="J245" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="K245" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="L245" s="1">
+        <v>124.7</v>
+      </c>
+      <c r="M245" s="1">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="N245" s="1">
+        <v>156.6</v>
+      </c>
+      <c r="O245" s="1">
+        <v>158.6</v>
+      </c>
+      <c r="P245" s="1">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="Q245" s="1">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="R245" s="1">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="S245" s="1">
+        <v>159</v>
+      </c>
+      <c r="T245" s="1">
+        <v>176</v>
+      </c>
+      <c r="U245" s="1">
+        <v>184.8</v>
+      </c>
+      <c r="V245" s="1">
+        <v>179.5</v>
+      </c>
+      <c r="W245" s="1">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A246" s="5">
+        <v>12516956</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="D246" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="E246" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="F246" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="G246" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="H246" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I246" s="1">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="J246" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="K246" s="1">
+        <v>90</v>
+      </c>
+      <c r="L246" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="M246" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="N246" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="O246" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="P246" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="Q246" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="R246" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="S246" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="T246" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U246" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="V246" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="W246" s="1">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="B247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="1">
+        <v>111.4</v>
+      </c>
+      <c r="D247" s="1">
+        <v>101.2</v>
+      </c>
+      <c r="E247" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="F247" s="1">
+        <v>61</v>
+      </c>
+      <c r="G247" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="H247" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I247" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="J247" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="K247" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="L247" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="M247" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="N247" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="O247" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="P247" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q247" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="R247" s="1">
+        <v>84.9</v>
+      </c>
+      <c r="S247" s="1">
+        <v>86.9</v>
+      </c>
+      <c r="T247" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="U247" s="1">
+        <v>98</v>
+      </c>
+      <c r="V247" s="1">
+        <v>111.4</v>
+      </c>
+      <c r="W247" s="1">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="D248" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="E248" s="1">
+        <v>51</v>
+      </c>
+      <c r="F248" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="G248" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="H248" s="1">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I248" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J248" s="1">
+        <v>82</v>
+      </c>
+      <c r="K248" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="L248" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="M248" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="N248" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="O248" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="P248" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="Q248" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="R248" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="S248" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="T248" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="U248" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="V248" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="W248" s="1">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A249" s="5"/>
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="1">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="D249" s="1">
+        <v>143.4</v>
+      </c>
+      <c r="E249" s="1">
+        <v>127.2</v>
+      </c>
+      <c r="F249" s="1">
+        <v>108.1</v>
+      </c>
+      <c r="G249" s="1">
+        <v>92.3</v>
+      </c>
+      <c r="H249" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="I249" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="J249" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="K249" s="1">
+        <v>62.3</v>
+      </c>
+      <c r="L249" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="M249" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="N249" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="O249" s="1">
+        <v>110.2</v>
+      </c>
+      <c r="P249" s="1">
+        <v>113.8</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>115.6</v>
+      </c>
+      <c r="R249" s="1">
+        <v>118.5</v>
+      </c>
+      <c r="S249" s="1">
+        <v>121.1</v>
+      </c>
+      <c r="T249" s="1">
+        <v>127</v>
+      </c>
+      <c r="U249" s="1">
+        <v>143.6</v>
+      </c>
+      <c r="V249" s="1">
+        <v>155.5</v>
+      </c>
+      <c r="W249" s="1">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
+        <v>12516964</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="D250" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="E250" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="F250" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="G250" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="H250" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="I250" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="J250" s="1">
+        <v>92.3</v>
+      </c>
+      <c r="K250" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="L250" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="M250" s="1">
+        <v>79</v>
+      </c>
+      <c r="N250" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="O250" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="P250" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="Q250" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="R250" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="S250" s="1">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="T250" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="U250" s="1">
+        <v>58</v>
+      </c>
+      <c r="V250" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="W250" s="1">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1">
+        <v>119.6</v>
+      </c>
+      <c r="D251" s="1">
+        <v>109.2</v>
+      </c>
+      <c r="E251" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="G251" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="H251" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="I251" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J251" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K251" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="L251" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="M251" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="N251" s="1">
+        <v>77</v>
+      </c>
+      <c r="O251" s="1">
+        <v>86.9</v>
+      </c>
+      <c r="P251" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="Q251" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="R251" s="1">
+        <v>95</v>
+      </c>
+      <c r="S251" s="1">
+        <v>97.6</v>
+      </c>
+      <c r="T251" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="U251" s="1">
+        <v>107.4</v>
+      </c>
+      <c r="V251" s="1">
+        <v>121.6</v>
+      </c>
+      <c r="W251" s="1">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="D252" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="E252" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="F252" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="G252" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="H252" s="1">
+        <v>86</v>
+      </c>
+      <c r="I252" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="J252" s="1">
+        <v>99.3</v>
+      </c>
+      <c r="K252" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="L252" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="M252" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="N252" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O252" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="P252" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="Q252" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="R252" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="S252" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="T252" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="U252" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="V252" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="W252" s="1">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" s="1">
+        <v>175.5</v>
+      </c>
+      <c r="D253" s="1">
+        <v>166.1</v>
+      </c>
+      <c r="E253" s="1">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="F253" s="1">
+        <v>121.5</v>
+      </c>
+      <c r="G253" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="H253" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="I253" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="J253" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="K253" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="L253" s="1">
+        <v>80</v>
+      </c>
+      <c r="M253" s="1">
+        <v>105.7</v>
+      </c>
+      <c r="N253" s="1">
+        <v>122.4</v>
+      </c>
+      <c r="O253" s="1">
+        <v>128</v>
+      </c>
+      <c r="P253" s="1">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="Q253" s="1">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="R253" s="1">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="S253" s="1">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="T253" s="1">
+        <v>144.1</v>
+      </c>
+      <c r="U253" s="1">
+        <v>165.5</v>
+      </c>
+      <c r="V253" s="1">
+        <v>175.7</v>
+      </c>
+      <c r="W253" s="1">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A254" s="5">
+        <v>12516986</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="D254" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="E254" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="F254" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="G254" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="H254" s="1">
+        <v>105.3</v>
+      </c>
+      <c r="I254" s="1">
+        <v>110.9</v>
+      </c>
+      <c r="J254" s="1">
+        <v>114.5</v>
+      </c>
+      <c r="K254" s="1">
+        <v>114.9</v>
+      </c>
+      <c r="L254" s="1">
+        <v>104.7</v>
+      </c>
+      <c r="M254" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="N254" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="O254" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="P254" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="Q254" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="R254" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="S254" s="1">
+        <v>105.6</v>
+      </c>
+      <c r="T254" s="1">
+        <v>106</v>
+      </c>
+      <c r="U254" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="V254" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="W254" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A255" s="5"/>
+      <c r="B255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="1">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="D255" s="1">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="E255" s="1">
+        <v>101.3</v>
+      </c>
+      <c r="F255" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G255" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="H255" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="I255" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="J255" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="K255" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="L255" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="M255" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="N255" s="1">
+        <v>92.3</v>
+      </c>
+      <c r="O255" s="1">
+        <v>95</v>
+      </c>
+      <c r="P255" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="Q255" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="R255" s="1">
+        <v>99.3</v>
+      </c>
+      <c r="S255" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="T255" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="U255" s="1">
+        <v>111.4</v>
+      </c>
+      <c r="V255" s="1">
+        <v>137.4</v>
+      </c>
+      <c r="W255" s="1">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="D256" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="E256" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F256" s="1">
+        <v>91</v>
+      </c>
+      <c r="G256" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="H256" s="1">
+        <v>107.7</v>
+      </c>
+      <c r="I256" s="1">
+        <v>110.9</v>
+      </c>
+      <c r="J256" s="1">
+        <v>112</v>
+      </c>
+      <c r="K256" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="L256" s="1">
+        <v>93.9</v>
+      </c>
+      <c r="M256" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="N256" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="O256" s="1">
+        <v>89.2</v>
+      </c>
+      <c r="P256" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="Q256" s="1">
+        <v>93.7</v>
+      </c>
+      <c r="R256" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="S256" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="T256" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="U256" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="V256" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="W256" s="1">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="1">
+        <v>169</v>
+      </c>
+      <c r="D257" s="1">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="E257" s="1">
+        <v>138.1</v>
+      </c>
+      <c r="F257" s="1">
+        <v>113.5</v>
+      </c>
+      <c r="G257" s="1">
+        <v>93</v>
+      </c>
+      <c r="H257" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="I257" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="J257" s="1">
+        <v>84.9</v>
+      </c>
+      <c r="K257" s="1">
+        <v>102.3</v>
+      </c>
+      <c r="L257" s="1">
+        <v>119.9</v>
+      </c>
+      <c r="M257" s="1">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="N257" s="1">
+        <v>136.1</v>
+      </c>
+      <c r="O257" s="1">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="P257" s="1">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="Q257" s="1">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="R257" s="1">
+        <v>134.9</v>
+      </c>
+      <c r="S257" s="1">
+        <v>134.5</v>
+      </c>
+      <c r="T257" s="1">
+        <v>134.4</v>
+      </c>
+      <c r="U257" s="1">
+        <v>145.1</v>
+      </c>
+      <c r="V257" s="1">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="W257" s="1">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="64">
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A50:A53"/>
     <mergeCell ref="A202:A205"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A2:A5"/>
@@ -14706,41 +18369,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="A170:A173"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
